--- a/tmp_output/docked_raw/docked_raw_2022-03-07.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="302">
   <si>
     <t>員編</t>
   </si>
@@ -836,9 +836,6 @@
     <t>INTWK0002203010061</t>
   </si>
   <si>
-    <t>4710792670195</t>
-  </si>
-  <si>
     <t>C-M-P</t>
   </si>
   <si>
@@ -848,9 +845,6 @@
     <t>D-L-P</t>
   </si>
   <si>
-    <t>4710792670201</t>
-  </si>
-  <si>
     <t>E-S-P</t>
   </si>
   <si>
@@ -896,378 +890,9 @@
     <t>A-XS-P</t>
   </si>
   <si>
-    <t>4710090053324</t>
-  </si>
-  <si>
-    <t>4710090060469</t>
-  </si>
-  <si>
-    <t>4710090053317</t>
-  </si>
-  <si>
-    <t>4710090060254</t>
-  </si>
-  <si>
-    <t>4710090060070</t>
-  </si>
-  <si>
-    <t>4901201110795</t>
-  </si>
-  <si>
-    <t>4710312020585</t>
-  </si>
-  <si>
-    <t>4710312012382</t>
-  </si>
-  <si>
-    <t>4710312020622</t>
-  </si>
-  <si>
-    <t>4710312020554</t>
-  </si>
-  <si>
-    <t>4710312020530</t>
-  </si>
-  <si>
-    <t>4710312010104</t>
-  </si>
-  <si>
-    <t>4711281450007</t>
-  </si>
-  <si>
-    <t>4712928250011</t>
-  </si>
-  <si>
-    <t>4712928250028</t>
-  </si>
-  <si>
-    <t>4717011158519</t>
-  </si>
-  <si>
-    <t>4711281454555</t>
-  </si>
-  <si>
-    <t>4717011150056</t>
-  </si>
-  <si>
-    <t>4717011150582</t>
-  </si>
-  <si>
-    <t>4717011150612</t>
-  </si>
-  <si>
-    <t>4717011150063</t>
-  </si>
-  <si>
-    <t>4717011150049</t>
-  </si>
-  <si>
-    <t>4712928250097</t>
-  </si>
-  <si>
-    <t>4710937600674</t>
-  </si>
-  <si>
-    <t>4717011150780</t>
-  </si>
-  <si>
-    <t>4713302680097</t>
-  </si>
-  <si>
-    <t>4713302680042</t>
-  </si>
-  <si>
-    <t>4711281458881</t>
-  </si>
-  <si>
-    <t>4710484941008</t>
-  </si>
-  <si>
-    <t>4710887929511</t>
-  </si>
-  <si>
-    <t>4710887920075</t>
-  </si>
-  <si>
-    <t>4717011158632</t>
-  </si>
-  <si>
-    <t>4717011158496</t>
-  </si>
-  <si>
     <t>CHA787986753</t>
   </si>
   <si>
-    <t>4711436620453</t>
-  </si>
-  <si>
-    <t>4711436621276</t>
-  </si>
-  <si>
-    <t>3605975028799</t>
-  </si>
-  <si>
-    <t>4931449432526</t>
-  </si>
-  <si>
-    <t>3614272353220</t>
-  </si>
-  <si>
-    <t>4718074426980</t>
-  </si>
-  <si>
-    <t>4718074427635</t>
-  </si>
-  <si>
-    <t>9416050532117</t>
-  </si>
-  <si>
-    <t>9421904520011</t>
-  </si>
-  <si>
-    <t>5713795201075</t>
-  </si>
-  <si>
-    <t>5713795020546</t>
-  </si>
-  <si>
-    <t>5713795201112</t>
-  </si>
-  <si>
-    <t>5713795201105</t>
-  </si>
-  <si>
-    <t>5060403119865</t>
-  </si>
-  <si>
-    <t>5060403119940</t>
-  </si>
-  <si>
-    <t>5060403119858</t>
-  </si>
-  <si>
-    <t>5060403119643</t>
-  </si>
-  <si>
-    <t>4902777313696</t>
-  </si>
-  <si>
-    <t>5060403119933</t>
-  </si>
-  <si>
-    <t>5060403119957</t>
-  </si>
-  <si>
-    <t>4712134665951</t>
-  </si>
-  <si>
-    <t>4712134662233</t>
-  </si>
-  <si>
-    <t>4712134664008</t>
-  </si>
-  <si>
-    <t>4712134660918</t>
-  </si>
-  <si>
-    <t>4712134662226</t>
-  </si>
-  <si>
-    <t>4712134665937</t>
-  </si>
-  <si>
-    <t>4712134662219</t>
-  </si>
-  <si>
-    <t>4719359055017</t>
-  </si>
-  <si>
-    <t>4719359016063</t>
-  </si>
-  <si>
-    <t>4901592913463</t>
-  </si>
-  <si>
-    <t>40804873</t>
-  </si>
-  <si>
-    <t>40122731</t>
-  </si>
-  <si>
-    <t>40804897</t>
-  </si>
-  <si>
-    <t>8016419125007</t>
-  </si>
-  <si>
-    <t>8016419098004</t>
-  </si>
-  <si>
-    <t>5410471110774</t>
-  </si>
-  <si>
-    <t>3023470001015</t>
-  </si>
-  <si>
-    <t>076397001289</t>
-  </si>
-  <si>
-    <t>40122342</t>
-  </si>
-  <si>
-    <t>5901489214559</t>
-  </si>
-  <si>
-    <t>3088542500285</t>
-  </si>
-  <si>
-    <t>45212017</t>
-  </si>
-  <si>
-    <t>45185809</t>
-  </si>
-  <si>
-    <t>45186196</t>
-  </si>
-  <si>
-    <t>043647190017</t>
-  </si>
-  <si>
-    <t>45186103</t>
-  </si>
-  <si>
-    <t>043647430014</t>
-  </si>
-  <si>
-    <t>43647160010</t>
-  </si>
-  <si>
-    <t>043647330017</t>
-  </si>
-  <si>
-    <t>43647325013</t>
-  </si>
-  <si>
-    <t>43647010018</t>
-  </si>
-  <si>
-    <t>043647465016</t>
-  </si>
-  <si>
-    <t>076397030234</t>
-  </si>
-  <si>
-    <t>76397030210</t>
-  </si>
-  <si>
-    <t>76397030227</t>
-  </si>
-  <si>
-    <t>76397105116</t>
-  </si>
-  <si>
-    <t>8423243007872</t>
-  </si>
-  <si>
-    <t>4562452230047</t>
-  </si>
-  <si>
-    <t>039045040290</t>
-  </si>
-  <si>
-    <t>4012200384688</t>
-  </si>
-  <si>
-    <t>7501017005895</t>
-  </si>
-  <si>
-    <t>4751017400692</t>
-  </si>
-  <si>
-    <t>4751017400630</t>
-  </si>
-  <si>
-    <t>5012427142701</t>
-  </si>
-  <si>
-    <t>4562452230016</t>
-  </si>
-  <si>
-    <t>5012427109001</t>
-  </si>
-  <si>
-    <t>5012427143708</t>
-  </si>
-  <si>
-    <t>8423243007933</t>
-  </si>
-  <si>
-    <t>43647030504</t>
-  </si>
-  <si>
-    <t>8850477882836</t>
-  </si>
-  <si>
-    <t>8850477255319</t>
-  </si>
-  <si>
-    <t>8850477253018</t>
-  </si>
-  <si>
-    <t>8850477254077</t>
-  </si>
-  <si>
-    <t>8850477023222</t>
-  </si>
-  <si>
-    <t>8850477371019</t>
-  </si>
-  <si>
-    <t>8850477259157</t>
-  </si>
-  <si>
-    <t>8850477253711</t>
-  </si>
-  <si>
-    <t>4719871988572</t>
-  </si>
-  <si>
-    <t>4719871982754</t>
-  </si>
-  <si>
-    <t>4719871988923</t>
-  </si>
-  <si>
-    <t>4719871988909</t>
-  </si>
-  <si>
-    <t>4716521731946</t>
-  </si>
-  <si>
-    <t>4716521772437</t>
-  </si>
-  <si>
-    <t>4719871988879</t>
-  </si>
-  <si>
-    <t>4716521734305</t>
-  </si>
-  <si>
-    <t>4719871980026</t>
-  </si>
-  <si>
-    <t>4711148400190</t>
-  </si>
-  <si>
-    <t>4719881251949</t>
-  </si>
-  <si>
-    <t>4711148403399</t>
-  </si>
-  <si>
-    <t>4719881250041</t>
-  </si>
-  <si>
     <t>7697365451_170310181812</t>
   </si>
   <si>
@@ -1289,475 +914,10 @@
     <t>7697371823_58368603378</t>
   </si>
   <si>
-    <t>4712959009220</t>
-  </si>
-  <si>
-    <t>4712959013715</t>
-  </si>
-  <si>
-    <t>4712959010400</t>
-  </si>
-  <si>
-    <t>4710036394917</t>
-  </si>
-  <si>
-    <t>4710114882350</t>
-  </si>
-  <si>
-    <t>4710564511640</t>
-  </si>
-  <si>
-    <t>4710564511664</t>
-  </si>
-  <si>
-    <t>4710564512326</t>
-  </si>
-  <si>
-    <t>4710564512111</t>
-  </si>
-  <si>
-    <t>4710564511725</t>
-  </si>
-  <si>
-    <t>4710564510681</t>
-  </si>
-  <si>
-    <t>4713008110010</t>
-  </si>
-  <si>
-    <t>30768001667</t>
-  </si>
-  <si>
-    <t>30768001711</t>
-  </si>
-  <si>
-    <t>030768006013</t>
-  </si>
-  <si>
-    <t>030768003852</t>
-  </si>
-  <si>
-    <t>030768003838</t>
-  </si>
-  <si>
-    <t>030768003845</t>
-  </si>
-  <si>
-    <t>030768005306</t>
-  </si>
-  <si>
-    <t>30768672294</t>
-  </si>
-  <si>
-    <t>4260332412513</t>
-  </si>
-  <si>
-    <t>4260332411608</t>
-  </si>
-  <si>
-    <t>4710332290364</t>
-  </si>
-  <si>
-    <t>4895173235498</t>
-  </si>
-  <si>
-    <t>4710332291088</t>
-  </si>
-  <si>
-    <t>8850163138230</t>
-  </si>
-  <si>
-    <t>4895173256738</t>
-  </si>
-  <si>
-    <t>4895173254246</t>
-  </si>
-  <si>
-    <t>4002000008</t>
-  </si>
-  <si>
-    <t>4003000008</t>
-  </si>
-  <si>
-    <t>4002000004</t>
-  </si>
-  <si>
-    <t>4002000009</t>
-  </si>
-  <si>
-    <t>4973167280072</t>
-  </si>
-  <si>
-    <t>074198990511</t>
-  </si>
-  <si>
-    <t>074198990023</t>
-  </si>
-  <si>
-    <t>074198990504</t>
-  </si>
-  <si>
-    <t>074198990016</t>
-  </si>
-  <si>
-    <t>074198990115</t>
-  </si>
-  <si>
-    <t>074198614271</t>
-  </si>
-  <si>
-    <t>074198990122</t>
-  </si>
-  <si>
-    <t>4710660884174</t>
-  </si>
-  <si>
-    <t>4710660882668</t>
-  </si>
-  <si>
-    <t>4710660882675</t>
-  </si>
-  <si>
-    <t>4710660886291</t>
-  </si>
-  <si>
-    <t>4710660884655</t>
-  </si>
-  <si>
-    <t>4710660884136</t>
-  </si>
-  <si>
-    <t>4710660884686</t>
-  </si>
-  <si>
-    <t>4710660883801</t>
-  </si>
-  <si>
-    <t>4710660882071</t>
-  </si>
-  <si>
-    <t>4710660885577</t>
-  </si>
-  <si>
-    <t>4710660885560</t>
-  </si>
-  <si>
-    <t>4710660886239</t>
-  </si>
-  <si>
-    <t>4710660884129</t>
-  </si>
-  <si>
-    <t>4710660884563</t>
-  </si>
-  <si>
-    <t>4710660884181</t>
-  </si>
-  <si>
-    <t>4710660884631</t>
-  </si>
-  <si>
-    <t>4710660884143</t>
-  </si>
-  <si>
-    <t>4710660884556</t>
-  </si>
-  <si>
-    <t>14901121556533</t>
-  </si>
-  <si>
-    <t>14901121506538</t>
-  </si>
-  <si>
-    <t>14901121546534</t>
-  </si>
-  <si>
-    <t>14901121556717</t>
-  </si>
-  <si>
-    <t>4710036602517</t>
-  </si>
-  <si>
-    <t>4710036586848</t>
-  </si>
-  <si>
-    <t>4710036400427</t>
-  </si>
-  <si>
-    <t>14710036402817</t>
-  </si>
-  <si>
-    <t>4710036603125</t>
-  </si>
-  <si>
-    <t>4710036604580</t>
-  </si>
-  <si>
-    <t>4710036604597</t>
-  </si>
-  <si>
-    <t>4710036402346</t>
-  </si>
-  <si>
-    <t>4710036400076</t>
-  </si>
-  <si>
-    <t>4710036402094</t>
-  </si>
-  <si>
-    <t>8806190719522</t>
-  </si>
-  <si>
-    <t>4710036394924</t>
-  </si>
-  <si>
-    <t>14710036402091</t>
-  </si>
-  <si>
-    <t>4710036401073</t>
-  </si>
-  <si>
-    <t>4710036600780</t>
-  </si>
-  <si>
-    <t>4710036600797</t>
-  </si>
-  <si>
-    <t>4710036599060</t>
-  </si>
-  <si>
-    <t>4710036599022</t>
-  </si>
-  <si>
-    <t>4710036611786</t>
-  </si>
-  <si>
-    <t>4710036561630</t>
-  </si>
-  <si>
-    <t>4710036561623</t>
-  </si>
-  <si>
-    <t>4710036602531</t>
-  </si>
-  <si>
-    <t>4710036602494</t>
-  </si>
-  <si>
-    <t>4710036029314</t>
-  </si>
-  <si>
-    <t>4710036029307</t>
-  </si>
-  <si>
-    <t>4710036605778</t>
-  </si>
-  <si>
-    <t>4710036605808</t>
-  </si>
-  <si>
-    <t>4710036605662</t>
-  </si>
-  <si>
-    <t>4710036605655</t>
-  </si>
-  <si>
-    <t>4710036601688</t>
-  </si>
-  <si>
-    <t>4710036605594</t>
-  </si>
-  <si>
-    <t>4710036605617</t>
-  </si>
-  <si>
-    <t>4710036599312</t>
-  </si>
-  <si>
-    <t>4710036605600</t>
-  </si>
-  <si>
-    <t>4710114880684</t>
-  </si>
-  <si>
-    <t>4710114862178</t>
-  </si>
-  <si>
-    <t>4710036555172</t>
-  </si>
-  <si>
-    <t>14710036611547</t>
-  </si>
-  <si>
-    <t>4710114882428</t>
-  </si>
-  <si>
-    <t>14710114882425</t>
-  </si>
-  <si>
-    <t>4710036555196</t>
-  </si>
-  <si>
-    <t>4710036613087</t>
-  </si>
-  <si>
-    <t>4710036586893</t>
-  </si>
-  <si>
-    <t>4710036394894</t>
-  </si>
-  <si>
-    <t>4710036586824</t>
-  </si>
-  <si>
     <t>收下</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>176</t>
   </si>
   <si>
     <t>2022-03-07</t>
@@ -2170,23 +1330,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>273</v>
+      <c r="C2">
+        <v>4710792670195</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H2" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
       </c>
       <c r="I2" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J2" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -2200,22 +1360,22 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H3" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J3" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -2229,22 +1389,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H4" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
       </c>
       <c r="I4" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J4" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -2258,22 +1418,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G5" t="s">
-        <v>532</v>
-      </c>
-      <c r="H5" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
       </c>
       <c r="I5" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J5" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -2286,23 +1446,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>277</v>
+      <c r="C6">
+        <v>4710792670201</v>
       </c>
       <c r="F6" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>532</v>
-      </c>
-      <c r="H6" t="s">
-        <v>535</v>
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
       </c>
       <c r="I6" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J6" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -2316,22 +1476,22 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H7" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J7" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -2345,22 +1505,22 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G8" t="s">
-        <v>532</v>
-      </c>
-      <c r="H8" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="I8" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J8" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -2374,22 +1534,22 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>532</v>
-      </c>
-      <c r="H9" t="s">
-        <v>537</v>
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
       </c>
       <c r="I9" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J9" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -2403,22 +1563,22 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
-      </c>
-      <c r="H10" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
       </c>
       <c r="I10" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J10" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -2432,22 +1592,22 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G11" t="s">
-        <v>532</v>
-      </c>
-      <c r="H11" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
       </c>
       <c r="I11" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J11" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -2461,22 +1621,22 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G12" t="s">
-        <v>532</v>
-      </c>
-      <c r="H12" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
       </c>
       <c r="I12" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J12" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -2490,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>532</v>
-      </c>
-      <c r="H13" t="s">
-        <v>539</v>
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>56</v>
       </c>
       <c r="I13" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J13" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -2519,22 +1679,22 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G14" t="s">
-        <v>532</v>
-      </c>
-      <c r="H14" t="s">
-        <v>540</v>
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
       </c>
       <c r="I14" s="2">
         <v>44627.34579861111</v>
       </c>
       <c r="J14" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2548,22 +1708,22 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>532</v>
-      </c>
-      <c r="H15" t="s">
-        <v>541</v>
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
       </c>
       <c r="I15" s="2">
         <v>44627.34605324074</v>
       </c>
       <c r="J15" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -2577,22 +1737,22 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>532</v>
-      </c>
-      <c r="H16" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
       </c>
       <c r="I16" s="2">
         <v>44627.34609953704</v>
       </c>
       <c r="J16" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2606,22 +1766,22 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G17" t="s">
-        <v>532</v>
-      </c>
-      <c r="H17" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
       </c>
       <c r="I17" s="2">
         <v>44627.34670138889</v>
       </c>
       <c r="J17" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2635,22 +1795,22 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G18" t="s">
-        <v>532</v>
-      </c>
-      <c r="H18" t="s">
-        <v>537</v>
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
       </c>
       <c r="I18" s="2">
         <v>44627.34673611111</v>
       </c>
       <c r="J18" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2664,22 +1824,22 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G19" t="s">
-        <v>532</v>
-      </c>
-      <c r="H19" t="s">
-        <v>543</v>
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>44627.34680555556</v>
       </c>
       <c r="J19" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2693,22 +1853,22 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F20" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G20" t="s">
-        <v>532</v>
-      </c>
-      <c r="H20" t="s">
-        <v>541</v>
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
       </c>
       <c r="I20" s="2">
         <v>44627.34689814815</v>
       </c>
       <c r="J20" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2722,22 +1882,22 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F21" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G21" t="s">
-        <v>532</v>
-      </c>
-      <c r="H21" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
       </c>
       <c r="I21" s="2">
         <v>44627.3471875</v>
       </c>
       <c r="J21" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2750,23 +1910,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>293</v>
+      <c r="C22">
+        <v>4710090053324</v>
       </c>
       <c r="F22" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>532</v>
-      </c>
-      <c r="H22" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
       </c>
       <c r="I22" s="2">
         <v>44627.34798611111</v>
       </c>
       <c r="J22" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2779,23 +1939,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>294</v>
+      <c r="C23">
+        <v>4710090060469</v>
       </c>
       <c r="F23" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G23" t="s">
-        <v>532</v>
-      </c>
-      <c r="H23" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <v>48</v>
       </c>
       <c r="I23" s="2">
         <v>44627.34802083333</v>
       </c>
       <c r="J23" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2808,23 +1968,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>295</v>
+      <c r="C24">
+        <v>4710090053317</v>
       </c>
       <c r="F24" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G24" t="s">
-        <v>532</v>
-      </c>
-      <c r="H24" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
       </c>
       <c r="I24" s="2">
         <v>44627.34837962963</v>
       </c>
       <c r="J24" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2837,23 +1997,23 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>296</v>
+      <c r="C25">
+        <v>4710090060254</v>
       </c>
       <c r="F25" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G25" t="s">
-        <v>532</v>
-      </c>
-      <c r="H25" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
       </c>
       <c r="I25" s="2">
         <v>44627.34841435185</v>
       </c>
       <c r="J25" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -2866,23 +2026,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>297</v>
+      <c r="C26">
+        <v>4710090060070</v>
       </c>
       <c r="F26" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G26" t="s">
-        <v>532</v>
-      </c>
-      <c r="H26" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
       </c>
       <c r="I26" s="2">
         <v>44627.3484375</v>
       </c>
       <c r="J26" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2895,23 +2055,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>298</v>
+      <c r="C27">
+        <v>4901201110795</v>
       </c>
       <c r="F27" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G27" t="s">
-        <v>532</v>
-      </c>
-      <c r="H27" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
       </c>
       <c r="I27" s="2">
         <v>44627.34851851852</v>
       </c>
       <c r="J27" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2924,23 +2084,23 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>299</v>
+      <c r="C28">
+        <v>4710312020585</v>
       </c>
       <c r="F28" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
-        <v>532</v>
-      </c>
-      <c r="H28" t="s">
-        <v>547</v>
+        <v>300</v>
+      </c>
+      <c r="H28">
+        <v>84</v>
       </c>
       <c r="I28" s="2">
         <v>44627.36483796296</v>
       </c>
       <c r="J28" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -2953,23 +2113,23 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>300</v>
+      <c r="C29">
+        <v>4710312012382</v>
       </c>
       <c r="F29" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>532</v>
-      </c>
-      <c r="H29" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
       </c>
       <c r="I29" s="2">
         <v>44627.36497685185</v>
       </c>
       <c r="J29" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -2982,23 +2142,23 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>301</v>
+      <c r="C30">
+        <v>4710312020622</v>
       </c>
       <c r="F30" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>532</v>
-      </c>
-      <c r="H30" t="s">
-        <v>549</v>
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <v>264</v>
       </c>
       <c r="I30" s="2">
         <v>44627.3650462963</v>
       </c>
       <c r="J30" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -3011,23 +2171,23 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>302</v>
+      <c r="C31">
+        <v>4710312020554</v>
       </c>
       <c r="F31" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>532</v>
-      </c>
-      <c r="H31" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
       </c>
       <c r="I31" s="2">
         <v>44627.36518518518</v>
       </c>
       <c r="J31" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -3040,23 +2200,23 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>303</v>
+      <c r="C32">
+        <v>4710312020530</v>
       </c>
       <c r="F32" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>532</v>
-      </c>
-      <c r="H32" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
       </c>
       <c r="I32" s="2">
         <v>44627.36524305555</v>
       </c>
       <c r="J32" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3069,23 +2229,23 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>304</v>
+      <c r="C33">
+        <v>4710312010104</v>
       </c>
       <c r="F33" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>532</v>
-      </c>
-      <c r="H33" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H33">
+        <v>48</v>
       </c>
       <c r="I33" s="2">
         <v>44627.36543981481</v>
       </c>
       <c r="J33" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -3098,23 +2258,23 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>305</v>
+      <c r="C34">
+        <v>4711281450007</v>
       </c>
       <c r="F34" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>532</v>
-      </c>
-      <c r="H34" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
       </c>
       <c r="I34" s="2">
         <v>44627.37413194445</v>
       </c>
       <c r="J34" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3127,23 +2287,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>306</v>
+      <c r="C35">
+        <v>4712928250011</v>
       </c>
       <c r="F35" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>532</v>
-      </c>
-      <c r="H35" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
       </c>
       <c r="I35" s="2">
         <v>44627.37418981481</v>
       </c>
       <c r="J35" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K35">
         <v>8</v>
@@ -3156,23 +2316,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>307</v>
+      <c r="C36">
+        <v>4712928250028</v>
       </c>
       <c r="F36" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>532</v>
-      </c>
-      <c r="H36" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
       </c>
       <c r="I36" s="2">
         <v>44627.37425925926</v>
       </c>
       <c r="J36" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3185,23 +2345,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>308</v>
+      <c r="C37">
+        <v>4717011158519</v>
       </c>
       <c r="F37" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>532</v>
-      </c>
-      <c r="H37" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
       </c>
       <c r="I37" s="2">
         <v>44627.37435185185</v>
       </c>
       <c r="J37" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3214,23 +2374,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>309</v>
+      <c r="C38">
+        <v>4711281454555</v>
       </c>
       <c r="F38" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>532</v>
-      </c>
-      <c r="H38" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
       </c>
       <c r="I38" s="2">
         <v>44627.37505787037</v>
       </c>
       <c r="J38" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3243,23 +2403,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>310</v>
+      <c r="C39">
+        <v>4717011150056</v>
       </c>
       <c r="F39" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>532</v>
-      </c>
-      <c r="H39" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
       </c>
       <c r="I39" s="2">
         <v>44627.37670138889</v>
       </c>
       <c r="J39" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -3272,23 +2432,23 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>311</v>
+      <c r="C40">
+        <v>4717011150582</v>
       </c>
       <c r="F40" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>532</v>
-      </c>
-      <c r="H40" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
       </c>
       <c r="I40" s="2">
         <v>44627.37678240741</v>
       </c>
       <c r="J40" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -3301,23 +2461,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>312</v>
+      <c r="C41">
+        <v>4717011150612</v>
       </c>
       <c r="F41" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>532</v>
-      </c>
-      <c r="H41" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H41">
+        <v>12</v>
       </c>
       <c r="I41" s="2">
         <v>44627.3768287037</v>
       </c>
       <c r="J41" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -3330,23 +2490,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>313</v>
+      <c r="C42">
+        <v>4717011150063</v>
       </c>
       <c r="F42" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>532</v>
-      </c>
-      <c r="H42" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
       </c>
       <c r="I42" s="2">
         <v>44627.37690972222</v>
       </c>
       <c r="J42" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -3359,23 +2519,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>314</v>
+      <c r="C43">
+        <v>4717011150049</v>
       </c>
       <c r="F43" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>532</v>
-      </c>
-      <c r="H43" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
       </c>
       <c r="I43" s="2">
         <v>44627.37697916666</v>
       </c>
       <c r="J43" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -3388,23 +2548,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>315</v>
+      <c r="C44">
+        <v>4712928250097</v>
       </c>
       <c r="F44" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G44" t="s">
-        <v>532</v>
-      </c>
-      <c r="H44" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
       </c>
       <c r="I44" s="2">
         <v>44627.38606481482</v>
       </c>
       <c r="J44" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K44">
         <v>9</v>
@@ -3417,23 +2577,23 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>316</v>
+      <c r="C45">
+        <v>4710937600674</v>
       </c>
       <c r="F45" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G45" t="s">
-        <v>532</v>
-      </c>
-      <c r="H45" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
       </c>
       <c r="I45" s="2">
         <v>44627.38614583333</v>
       </c>
       <c r="J45" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -3446,23 +2606,23 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>317</v>
+      <c r="C46">
+        <v>4717011150780</v>
       </c>
       <c r="F46" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G46" t="s">
-        <v>532</v>
-      </c>
-      <c r="H46" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
       </c>
       <c r="I46" s="2">
         <v>44627.38630787037</v>
       </c>
       <c r="J46" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -3475,23 +2635,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>318</v>
+      <c r="C47">
+        <v>4713302680097</v>
       </c>
       <c r="F47" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
-        <v>532</v>
-      </c>
-      <c r="H47" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
       </c>
       <c r="I47" s="2">
         <v>44627.38641203703</v>
       </c>
       <c r="J47" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -3504,23 +2664,23 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>319</v>
+      <c r="C48">
+        <v>4713302680042</v>
       </c>
       <c r="F48" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G48" t="s">
-        <v>532</v>
-      </c>
-      <c r="H48" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
       </c>
       <c r="I48" s="2">
         <v>44627.38649305556</v>
       </c>
       <c r="J48" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -3533,23 +2693,23 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>320</v>
+      <c r="C49">
+        <v>4711281458881</v>
       </c>
       <c r="F49" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
-        <v>532</v>
-      </c>
-      <c r="H49" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
       </c>
       <c r="I49" s="2">
         <v>44627.38653935185</v>
       </c>
       <c r="J49" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -3562,23 +2722,23 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>321</v>
+      <c r="C50">
+        <v>4710484941008</v>
       </c>
       <c r="F50" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G50" t="s">
-        <v>532</v>
-      </c>
-      <c r="H50" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
       </c>
       <c r="I50" s="2">
         <v>44627.38653935185</v>
       </c>
       <c r="J50" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -3591,23 +2751,23 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>322</v>
+      <c r="C51">
+        <v>4710887929511</v>
       </c>
       <c r="F51" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G51" t="s">
-        <v>532</v>
-      </c>
-      <c r="H51" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
       </c>
       <c r="I51" s="2">
         <v>44627.39835648148</v>
       </c>
       <c r="J51" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -3620,23 +2780,23 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
-        <v>323</v>
+      <c r="C52">
+        <v>4710887920075</v>
       </c>
       <c r="F52" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G52" t="s">
-        <v>532</v>
-      </c>
-      <c r="H52" t="s">
-        <v>543</v>
+        <v>300</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
       </c>
       <c r="I52" s="2">
         <v>44627.39835648148</v>
       </c>
       <c r="J52" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -3649,23 +2809,23 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>324</v>
+      <c r="C53">
+        <v>4717011158632</v>
       </c>
       <c r="F53" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G53" t="s">
-        <v>532</v>
-      </c>
-      <c r="H53" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
       </c>
       <c r="I53" s="2">
         <v>44627.3984375</v>
       </c>
       <c r="J53" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -3678,23 +2838,23 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>325</v>
+      <c r="C54">
+        <v>4717011158496</v>
       </c>
       <c r="F54" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G54" t="s">
-        <v>532</v>
-      </c>
-      <c r="H54" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
       </c>
       <c r="I54" s="2">
         <v>44627.39851851852</v>
       </c>
       <c r="J54" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -3708,22 +2868,22 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G55" t="s">
-        <v>532</v>
-      </c>
-      <c r="H55" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
       </c>
       <c r="I55" s="2">
         <v>44627.40290509259</v>
       </c>
       <c r="J55" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -3736,23 +2896,23 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
-        <v>327</v>
+      <c r="C56">
+        <v>4711436620453</v>
       </c>
       <c r="F56" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>532</v>
-      </c>
-      <c r="H56" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H56">
+        <v>12</v>
       </c>
       <c r="I56" s="2">
         <v>44627.40304398148</v>
       </c>
       <c r="J56" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -3765,23 +2925,23 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>327</v>
+      <c r="C57">
+        <v>4711436620453</v>
       </c>
       <c r="F57" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G57" t="s">
-        <v>532</v>
-      </c>
-      <c r="H57" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
       </c>
       <c r="I57" s="2">
         <v>44627.40320601852</v>
       </c>
       <c r="J57" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -3794,23 +2954,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>327</v>
+      <c r="C58">
+        <v>4711436620453</v>
       </c>
       <c r="F58" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G58" t="s">
-        <v>532</v>
-      </c>
-      <c r="H58" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
       </c>
       <c r="I58" s="2">
         <v>44627.4034837963</v>
       </c>
       <c r="J58" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -3823,23 +2983,23 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>328</v>
+      <c r="C59">
+        <v>4711436621276</v>
       </c>
       <c r="F59" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G59" t="s">
-        <v>532</v>
-      </c>
-      <c r="H59" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
       </c>
       <c r="I59" s="2">
         <v>44627.40349537037</v>
       </c>
       <c r="J59" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K59">
         <v>9</v>
@@ -3852,23 +3012,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>329</v>
+      <c r="C60">
+        <v>3605975028799</v>
       </c>
       <c r="F60" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>532</v>
-      </c>
-      <c r="H60" t="s">
-        <v>552</v>
+        <v>300</v>
+      </c>
+      <c r="H60">
+        <v>500</v>
       </c>
       <c r="I60" s="2">
         <v>44627.40545138889</v>
       </c>
       <c r="J60" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -3881,23 +3041,23 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>330</v>
+      <c r="C61">
+        <v>4931449432526</v>
       </c>
       <c r="F61" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>532</v>
-      </c>
-      <c r="H61" t="s">
-        <v>553</v>
+        <v>300</v>
+      </c>
+      <c r="H61">
+        <v>150</v>
       </c>
       <c r="I61" s="2">
         <v>44627.40577546296</v>
       </c>
       <c r="J61" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -3910,23 +3070,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>331</v>
+      <c r="C62">
+        <v>3614272353220</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G62" t="s">
-        <v>532</v>
-      </c>
-      <c r="H62" t="s">
-        <v>537</v>
+        <v>300</v>
+      </c>
+      <c r="H62">
+        <v>25</v>
       </c>
       <c r="I62" s="2">
         <v>44627.40591435185</v>
       </c>
       <c r="J62" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -3939,23 +3099,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>332</v>
+      <c r="C63">
+        <v>4718074426980</v>
       </c>
       <c r="F63" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>532</v>
-      </c>
-      <c r="H63" t="s">
-        <v>554</v>
+        <v>300</v>
+      </c>
+      <c r="H63">
+        <v>504</v>
       </c>
       <c r="I63" s="2">
         <v>44627.4152662037</v>
       </c>
       <c r="J63" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K63">
         <v>9</v>
@@ -3968,23 +3128,23 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
-        <v>333</v>
+      <c r="C64">
+        <v>4718074427635</v>
       </c>
       <c r="F64" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>532</v>
-      </c>
-      <c r="H64" t="s">
-        <v>554</v>
+        <v>300</v>
+      </c>
+      <c r="H64">
+        <v>504</v>
       </c>
       <c r="I64" s="2">
         <v>44627.41792824074</v>
       </c>
       <c r="J64" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -3997,23 +3157,23 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
-        <v>334</v>
+      <c r="C65">
+        <v>9416050532117</v>
       </c>
       <c r="F65" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>532</v>
-      </c>
-      <c r="H65" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
       </c>
       <c r="I65" s="2">
         <v>44627.4194212963</v>
       </c>
       <c r="J65" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K65">
         <v>10</v>
@@ -4026,23 +3186,23 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
-        <v>335</v>
+      <c r="C66">
+        <v>9421904520011</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>532</v>
-      </c>
-      <c r="H66" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
       </c>
       <c r="I66" s="2">
         <v>44627.41975694444</v>
       </c>
       <c r="J66" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -4055,20 +3215,20 @@
       <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
-        <v>336</v>
+      <c r="C67">
+        <v>5713795201075</v>
       </c>
       <c r="F67" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I67" s="2">
         <v>44627.41978009259</v>
       </c>
       <c r="J67" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -4081,20 +3241,20 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>337</v>
+      <c r="C68">
+        <v>5713795020546</v>
       </c>
       <c r="F68" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G68" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I68" s="2">
         <v>44627.41989583334</v>
       </c>
       <c r="J68" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -4107,20 +3267,20 @@
       <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
-        <v>338</v>
+      <c r="C69">
+        <v>5713795201112</v>
       </c>
       <c r="F69" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G69" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I69" s="2">
         <v>44627.42055555555</v>
       </c>
       <c r="J69" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -4133,20 +3293,20 @@
       <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
-        <v>339</v>
+      <c r="C70">
+        <v>5713795201105</v>
       </c>
       <c r="F70" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I70" s="2">
         <v>44627.42057870371</v>
       </c>
       <c r="J70" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -4159,23 +3319,23 @@
       <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
-        <v>340</v>
+      <c r="C71">
+        <v>5060403119865</v>
       </c>
       <c r="F71" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G71" t="s">
-        <v>532</v>
-      </c>
-      <c r="H71" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
       </c>
       <c r="I71" s="2">
         <v>44627.4254050926</v>
       </c>
       <c r="J71" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -4188,23 +3348,23 @@
       <c r="B72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>341</v>
+      <c r="C72">
+        <v>5060403119940</v>
       </c>
       <c r="F72" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G72" t="s">
-        <v>532</v>
-      </c>
-      <c r="H72" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
       </c>
       <c r="I72" s="2">
         <v>44627.4254050926</v>
       </c>
       <c r="J72" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -4217,23 +3377,23 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
-        <v>342</v>
+      <c r="C73">
+        <v>5060403119858</v>
       </c>
       <c r="F73" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G73" t="s">
-        <v>532</v>
-      </c>
-      <c r="H73" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
       </c>
       <c r="I73" s="2">
         <v>44627.4254050926</v>
       </c>
       <c r="J73" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K73">
         <v>10</v>
@@ -4246,23 +3406,23 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
-        <v>343</v>
+      <c r="C74">
+        <v>5060403119643</v>
       </c>
       <c r="F74" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>532</v>
-      </c>
-      <c r="H74" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
       </c>
       <c r="I74" s="2">
         <v>44627.4254050926</v>
       </c>
       <c r="J74" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -4275,23 +3435,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>344</v>
+      <c r="C75">
+        <v>4902777313696</v>
       </c>
       <c r="F75" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G75" t="s">
-        <v>532</v>
-      </c>
-      <c r="H75" t="s">
-        <v>553</v>
+        <v>300</v>
+      </c>
+      <c r="H75">
+        <v>150</v>
       </c>
       <c r="I75" s="2">
         <v>44627.42613425926</v>
       </c>
       <c r="J75" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -4304,23 +3464,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>345</v>
+      <c r="C76">
+        <v>5060403119933</v>
       </c>
       <c r="F76" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G76" t="s">
-        <v>532</v>
-      </c>
-      <c r="H76" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
       </c>
       <c r="I76" s="2">
         <v>44627.42708333334</v>
       </c>
       <c r="J76" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -4333,23 +3493,23 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>346</v>
+      <c r="C77">
+        <v>5060403119957</v>
       </c>
       <c r="F77" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G77" t="s">
-        <v>532</v>
-      </c>
-      <c r="H77" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
       </c>
       <c r="I77" s="2">
         <v>44627.42710648148</v>
       </c>
       <c r="J77" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -4363,19 +3523,19 @@
         <v>87</v>
       </c>
       <c r="F78" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G78" t="s">
-        <v>532</v>
-      </c>
-      <c r="H78" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
       </c>
       <c r="I78" s="2">
         <v>44627.42743055556</v>
       </c>
       <c r="J78" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -4388,23 +3548,23 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>347</v>
+      <c r="C79">
+        <v>4712134665951</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G79" t="s">
-        <v>532</v>
-      </c>
-      <c r="H79" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H79">
+        <v>36</v>
       </c>
       <c r="I79" s="2">
         <v>44627.42901620371</v>
       </c>
       <c r="J79" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -4417,23 +3577,23 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>348</v>
+      <c r="C80">
+        <v>4712134662233</v>
       </c>
       <c r="F80" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G80" t="s">
-        <v>532</v>
-      </c>
-      <c r="H80" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H80">
+        <v>24</v>
       </c>
       <c r="I80" s="2">
         <v>44627.42909722222</v>
       </c>
       <c r="J80" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -4446,23 +3606,23 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>349</v>
+      <c r="C81">
+        <v>4712134664008</v>
       </c>
       <c r="F81" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
-        <v>532</v>
-      </c>
-      <c r="H81" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H81">
+        <v>12</v>
       </c>
       <c r="I81" s="2">
         <v>44627.42918981481</v>
       </c>
       <c r="J81" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K81">
         <v>10</v>
@@ -4475,23 +3635,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>350</v>
+      <c r="C82">
+        <v>4712134660918</v>
       </c>
       <c r="F82" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
-        <v>532</v>
-      </c>
-      <c r="H82" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H82">
+        <v>48</v>
       </c>
       <c r="I82" s="2">
         <v>44627.42938657408</v>
       </c>
       <c r="J82" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -4504,23 +3664,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>351</v>
+      <c r="C83">
+        <v>4712134662226</v>
       </c>
       <c r="F83" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
-        <v>532</v>
-      </c>
-      <c r="H83" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H83">
+        <v>36</v>
       </c>
       <c r="I83" s="2">
         <v>44627.42950231482</v>
       </c>
       <c r="J83" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K83">
         <v>10</v>
@@ -4533,23 +3693,23 @@
       <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
-        <v>352</v>
+      <c r="C84">
+        <v>4712134665937</v>
       </c>
       <c r="F84" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G84" t="s">
-        <v>532</v>
-      </c>
-      <c r="H84" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H84">
+        <v>60</v>
       </c>
       <c r="I84" s="2">
         <v>44627.42997685185</v>
       </c>
       <c r="J84" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4562,23 +3722,23 @@
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
-        <v>353</v>
+      <c r="C85">
+        <v>4712134662219</v>
       </c>
       <c r="F85" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G85" t="s">
-        <v>532</v>
-      </c>
-      <c r="H85" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H85">
+        <v>60</v>
       </c>
       <c r="I85" s="2">
         <v>44627.43008101852</v>
       </c>
       <c r="J85" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -4591,23 +3751,23 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>354</v>
+      <c r="C86">
+        <v>4719359055017</v>
       </c>
       <c r="F86" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G86" t="s">
-        <v>532</v>
-      </c>
-      <c r="H86" t="s">
-        <v>543</v>
+        <v>300</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
       </c>
       <c r="I86" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J86" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K86">
         <v>8</v>
@@ -4620,23 +3780,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>355</v>
+      <c r="C87">
+        <v>4719359016063</v>
       </c>
       <c r="F87" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G87" t="s">
-        <v>532</v>
-      </c>
-      <c r="H87" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H87">
+        <v>18</v>
       </c>
       <c r="I87" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J87" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K87">
         <v>8</v>
@@ -4649,23 +3809,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>356</v>
+      <c r="C88">
+        <v>4901592913463</v>
       </c>
       <c r="F88" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G88" t="s">
-        <v>532</v>
-      </c>
-      <c r="H88" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H88">
+        <v>80</v>
       </c>
       <c r="I88" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J88" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K88">
         <v>8</v>
@@ -4678,23 +3838,23 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>357</v>
+      <c r="C89">
+        <v>40804873</v>
       </c>
       <c r="F89" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G89" t="s">
-        <v>532</v>
-      </c>
-      <c r="H89" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H89">
+        <v>16</v>
       </c>
       <c r="I89" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J89" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K89">
         <v>8</v>
@@ -4707,23 +3867,23 @@
       <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
-        <v>358</v>
+      <c r="C90">
+        <v>40122731</v>
       </c>
       <c r="F90" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G90" t="s">
-        <v>532</v>
-      </c>
-      <c r="H90" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H90">
+        <v>16</v>
       </c>
       <c r="I90" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J90" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K90">
         <v>8</v>
@@ -4736,23 +3896,23 @@
       <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="C91" t="s">
-        <v>359</v>
+      <c r="C91">
+        <v>40804897</v>
       </c>
       <c r="F91" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G91" t="s">
-        <v>532</v>
-      </c>
-      <c r="H91" t="s">
-        <v>533</v>
+        <v>300</v>
+      </c>
+      <c r="H91">
+        <v>16</v>
       </c>
       <c r="I91" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J91" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K91">
         <v>8</v>
@@ -4765,23 +3925,23 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>360</v>
+      <c r="C92">
+        <v>8016419125007</v>
       </c>
       <c r="F92" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G92" t="s">
-        <v>532</v>
-      </c>
-      <c r="H92" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H92">
+        <v>48</v>
       </c>
       <c r="I92" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J92" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K92">
         <v>8</v>
@@ -4794,23 +3954,23 @@
       <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
-        <v>361</v>
+      <c r="C93">
+        <v>8016419098004</v>
       </c>
       <c r="F93" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>532</v>
-      </c>
-      <c r="H93" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H93">
+        <v>48</v>
       </c>
       <c r="I93" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J93" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K93">
         <v>8</v>
@@ -4823,23 +3983,23 @@
       <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
-        <v>362</v>
+      <c r="C94">
+        <v>5410471110774</v>
       </c>
       <c r="F94" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>532</v>
-      </c>
-      <c r="H94" t="s">
-        <v>557</v>
+        <v>300</v>
+      </c>
+      <c r="H94">
+        <v>28</v>
       </c>
       <c r="I94" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J94" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K94">
         <v>8</v>
@@ -4852,23 +4012,23 @@
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" t="s">
-        <v>363</v>
+      <c r="C95">
+        <v>3023470001015</v>
       </c>
       <c r="F95" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G95" t="s">
-        <v>532</v>
-      </c>
-      <c r="H95" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H95">
+        <v>48</v>
       </c>
       <c r="I95" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J95" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K95">
         <v>8</v>
@@ -4881,23 +4041,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>364</v>
+      <c r="C96">
+        <v>76397001289</v>
       </c>
       <c r="F96" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G96" t="s">
-        <v>532</v>
-      </c>
-      <c r="H96" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H96">
+        <v>24</v>
       </c>
       <c r="I96" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J96" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K96">
         <v>8</v>
@@ -4910,23 +4070,23 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>365</v>
+      <c r="C97">
+        <v>40122342</v>
       </c>
       <c r="F97" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G97" t="s">
-        <v>532</v>
-      </c>
-      <c r="H97" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
       </c>
       <c r="I97" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J97" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K97">
         <v>8</v>
@@ -4939,23 +4099,23 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" t="s">
-        <v>366</v>
+      <c r="C98">
+        <v>5901489214559</v>
       </c>
       <c r="F98" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G98" t="s">
-        <v>532</v>
-      </c>
-      <c r="H98" t="s">
-        <v>558</v>
+        <v>300</v>
+      </c>
+      <c r="H98">
+        <v>180</v>
       </c>
       <c r="I98" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J98" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K98">
         <v>8</v>
@@ -4968,23 +4128,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>367</v>
+      <c r="C99">
+        <v>3088542500285</v>
       </c>
       <c r="F99" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G99" t="s">
-        <v>532</v>
-      </c>
-      <c r="H99" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H99">
+        <v>24</v>
       </c>
       <c r="I99" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J99" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K99">
         <v>8</v>
@@ -4997,23 +4157,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>368</v>
+      <c r="C100">
+        <v>45212017</v>
       </c>
       <c r="F100" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G100" t="s">
-        <v>532</v>
-      </c>
-      <c r="H100" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H100">
+        <v>48</v>
       </c>
       <c r="I100" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J100" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K100">
         <v>8</v>
@@ -5026,23 +4186,23 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>369</v>
+      <c r="C101">
+        <v>45185809</v>
       </c>
       <c r="F101" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>532</v>
-      </c>
-      <c r="H101" t="s">
-        <v>559</v>
+        <v>300</v>
+      </c>
+      <c r="H101">
+        <v>72</v>
       </c>
       <c r="I101" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J101" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K101">
         <v>8</v>
@@ -5055,23 +4215,23 @@
       <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C102" t="s">
-        <v>370</v>
+      <c r="C102">
+        <v>45186196</v>
       </c>
       <c r="F102" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>532</v>
-      </c>
-      <c r="H102" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H102">
+        <v>48</v>
       </c>
       <c r="I102" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J102" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K102">
         <v>8</v>
@@ -5084,23 +4244,23 @@
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
-        <v>371</v>
+      <c r="C103">
+        <v>43647190017</v>
       </c>
       <c r="F103" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>532</v>
-      </c>
-      <c r="H103" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H103">
+        <v>36</v>
       </c>
       <c r="I103" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J103" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K103">
         <v>8</v>
@@ -5113,23 +4273,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>372</v>
+      <c r="C104">
+        <v>45186103</v>
       </c>
       <c r="F104" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G104" t="s">
-        <v>532</v>
-      </c>
-      <c r="H104" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H104">
+        <v>48</v>
       </c>
       <c r="I104" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J104" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K104">
         <v>8</v>
@@ -5142,23 +4302,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>373</v>
+      <c r="C105">
+        <v>43647430014</v>
       </c>
       <c r="F105" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>532</v>
-      </c>
-      <c r="H105" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H105">
+        <v>48</v>
       </c>
       <c r="I105" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J105" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K105">
         <v>8</v>
@@ -5171,23 +4331,23 @@
       <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C106" t="s">
-        <v>374</v>
+      <c r="C106">
+        <v>43647160010</v>
       </c>
       <c r="F106" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G106" t="s">
-        <v>532</v>
-      </c>
-      <c r="H106" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H106">
+        <v>60</v>
       </c>
       <c r="I106" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J106" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K106">
         <v>8</v>
@@ -5200,23 +4360,23 @@
       <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
-        <v>375</v>
+      <c r="C107">
+        <v>43647330017</v>
       </c>
       <c r="F107" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G107" t="s">
-        <v>532</v>
-      </c>
-      <c r="H107" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H107">
+        <v>36</v>
       </c>
       <c r="I107" s="2">
         <v>44627.33334490741</v>
       </c>
       <c r="J107" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K107">
         <v>8</v>
@@ -5229,23 +4389,23 @@
       <c r="B108" t="s">
         <v>117</v>
       </c>
-      <c r="C108" t="s">
-        <v>376</v>
+      <c r="C108">
+        <v>43647325013</v>
       </c>
       <c r="F108" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G108" t="s">
-        <v>532</v>
-      </c>
-      <c r="H108" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H108">
+        <v>48</v>
       </c>
       <c r="I108" s="2">
         <v>44627.33339120371</v>
       </c>
       <c r="J108" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K108">
         <v>8</v>
@@ -5258,23 +4418,23 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="s">
-        <v>377</v>
+      <c r="C109">
+        <v>43647010018</v>
       </c>
       <c r="F109" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G109" t="s">
-        <v>532</v>
-      </c>
-      <c r="H109" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
       </c>
       <c r="I109" s="2">
         <v>44627.33339120371</v>
       </c>
       <c r="J109" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K109">
         <v>8</v>
@@ -5287,23 +4447,23 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="s">
-        <v>378</v>
+      <c r="C110">
+        <v>43647465016</v>
       </c>
       <c r="F110" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G110" t="s">
-        <v>532</v>
-      </c>
-      <c r="H110" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H110">
+        <v>24</v>
       </c>
       <c r="I110" s="2">
         <v>44627.33342592593</v>
       </c>
       <c r="J110" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K110">
         <v>8</v>
@@ -5316,23 +4476,23 @@
       <c r="B111" t="s">
         <v>120</v>
       </c>
-      <c r="C111" t="s">
-        <v>379</v>
+      <c r="C111">
+        <v>76397030234</v>
       </c>
       <c r="F111" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G111" t="s">
-        <v>532</v>
-      </c>
-      <c r="H111" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H111">
+        <v>48</v>
       </c>
       <c r="I111" s="2">
         <v>44627.33582175926</v>
       </c>
       <c r="J111" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K111">
         <v>8</v>
@@ -5345,23 +4505,23 @@
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>380</v>
+      <c r="C112">
+        <v>76397030210</v>
       </c>
       <c r="F112" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
-        <v>532</v>
-      </c>
-      <c r="H112" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H112">
+        <v>24</v>
       </c>
       <c r="I112" s="2">
         <v>44627.33592592592</v>
       </c>
       <c r="J112" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K112">
         <v>8</v>
@@ -5374,23 +4534,23 @@
       <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C113" t="s">
-        <v>381</v>
+      <c r="C113">
+        <v>76397030227</v>
       </c>
       <c r="F113" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
-        <v>532</v>
-      </c>
-      <c r="H113" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H113">
+        <v>24</v>
       </c>
       <c r="I113" s="2">
         <v>44627.33605324074</v>
       </c>
       <c r="J113" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K113">
         <v>8</v>
@@ -5403,23 +4563,23 @@
       <c r="B114" t="s">
         <v>123</v>
       </c>
-      <c r="C114" t="s">
-        <v>382</v>
+      <c r="C114">
+        <v>76397105116</v>
       </c>
       <c r="F114" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
-        <v>532</v>
-      </c>
-      <c r="H114" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H114">
+        <v>48</v>
       </c>
       <c r="I114" s="2">
         <v>44627.33613425926</v>
       </c>
       <c r="J114" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K114">
         <v>8</v>
@@ -5432,23 +4592,23 @@
       <c r="B115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
-        <v>383</v>
+      <c r="C115">
+        <v>8423243007872</v>
       </c>
       <c r="F115" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>532</v>
-      </c>
-      <c r="H115" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H115">
+        <v>36</v>
       </c>
       <c r="I115" s="2">
         <v>44627.33618055555</v>
       </c>
       <c r="J115" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K115">
         <v>8</v>
@@ -5461,23 +4621,23 @@
       <c r="B116" t="s">
         <v>125</v>
       </c>
-      <c r="C116" t="s">
-        <v>384</v>
+      <c r="C116">
+        <v>4562452230047</v>
       </c>
       <c r="F116" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G116" t="s">
-        <v>532</v>
-      </c>
-      <c r="H116" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H116">
+        <v>48</v>
       </c>
       <c r="I116" s="2">
         <v>44627.33622685185</v>
       </c>
       <c r="J116" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K116">
         <v>8</v>
@@ -5490,23 +4650,23 @@
       <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="C117" t="s">
-        <v>385</v>
+      <c r="C117">
+        <v>39045040290</v>
       </c>
       <c r="F117" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G117" t="s">
-        <v>532</v>
-      </c>
-      <c r="H117" t="s">
-        <v>541</v>
+        <v>300</v>
+      </c>
+      <c r="H117">
+        <v>40</v>
       </c>
       <c r="I117" s="2">
         <v>44627.33769675926</v>
       </c>
       <c r="J117" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K117">
         <v>8</v>
@@ -5519,23 +4679,23 @@
       <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C118" t="s">
-        <v>386</v>
+      <c r="C118">
+        <v>4012200384688</v>
       </c>
       <c r="F118" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G118" t="s">
-        <v>532</v>
-      </c>
-      <c r="H118" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H118">
+        <v>24</v>
       </c>
       <c r="I118" s="2">
         <v>44627.33778935186</v>
       </c>
       <c r="J118" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K118">
         <v>8</v>
@@ -5548,23 +4708,23 @@
       <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C119" t="s">
-        <v>387</v>
+      <c r="C119">
+        <v>7501017005895</v>
       </c>
       <c r="F119" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G119" t="s">
-        <v>532</v>
-      </c>
-      <c r="H119" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H119">
+        <v>48</v>
       </c>
       <c r="I119" s="2">
         <v>44627.33795138889</v>
       </c>
       <c r="J119" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K119">
         <v>8</v>
@@ -5577,23 +4737,23 @@
       <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>388</v>
+      <c r="C120">
+        <v>4751017400692</v>
       </c>
       <c r="F120" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G120" t="s">
-        <v>532</v>
-      </c>
-      <c r="H120" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H120">
+        <v>24</v>
       </c>
       <c r="I120" s="2">
         <v>44627.33804398148</v>
       </c>
       <c r="J120" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K120">
         <v>8</v>
@@ -5606,23 +4766,23 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>389</v>
+      <c r="C121">
+        <v>4751017400630</v>
       </c>
       <c r="F121" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G121" t="s">
-        <v>532</v>
-      </c>
-      <c r="H121" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H121">
+        <v>48</v>
       </c>
       <c r="I121" s="2">
         <v>44627.33822916666</v>
       </c>
       <c r="J121" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K121">
         <v>8</v>
@@ -5635,23 +4795,23 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>390</v>
+      <c r="C122">
+        <v>5012427142701</v>
       </c>
       <c r="F122" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G122" t="s">
-        <v>532</v>
-      </c>
-      <c r="H122" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H122">
+        <v>48</v>
       </c>
       <c r="I122" s="2">
         <v>44627.33836805556</v>
       </c>
       <c r="J122" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K122">
         <v>8</v>
@@ -5664,23 +4824,23 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>391</v>
+      <c r="C123">
+        <v>4562452230016</v>
       </c>
       <c r="F123" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G123" t="s">
-        <v>532</v>
-      </c>
-      <c r="H123" t="s">
-        <v>559</v>
+        <v>300</v>
+      </c>
+      <c r="H123">
+        <v>72</v>
       </c>
       <c r="I123" s="2">
         <v>44627.33908564815</v>
       </c>
       <c r="J123" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K123">
         <v>8</v>
@@ -5693,23 +4853,23 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>392</v>
+      <c r="C124">
+        <v>5012427109001</v>
       </c>
       <c r="F124" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G124" t="s">
-        <v>532</v>
-      </c>
-      <c r="H124" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H124">
+        <v>48</v>
       </c>
       <c r="I124" s="2">
         <v>44627.33914351852</v>
       </c>
       <c r="J124" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K124">
         <v>8</v>
@@ -5722,23 +4882,23 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>393</v>
+      <c r="C125">
+        <v>5012427143708</v>
       </c>
       <c r="F125" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G125" t="s">
-        <v>532</v>
-      </c>
-      <c r="H125" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H125">
+        <v>48</v>
       </c>
       <c r="I125" s="2">
         <v>44627.33918981482</v>
       </c>
       <c r="J125" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K125">
         <v>8</v>
@@ -5751,23 +4911,23 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>394</v>
+      <c r="C126">
+        <v>8423243007933</v>
       </c>
       <c r="F126" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G126" t="s">
-        <v>532</v>
-      </c>
-      <c r="H126" t="s">
-        <v>560</v>
+        <v>300</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
       </c>
       <c r="I126" s="2">
         <v>44627.33972222222</v>
       </c>
       <c r="J126" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K126">
         <v>8</v>
@@ -5780,23 +4940,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>395</v>
+      <c r="C127">
+        <v>43647030504</v>
       </c>
       <c r="F127" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G127" t="s">
-        <v>532</v>
-      </c>
-      <c r="H127" t="s">
-        <v>561</v>
+        <v>300</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
       </c>
       <c r="I127" s="2">
         <v>44627.33993055556</v>
       </c>
       <c r="J127" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K127">
         <v>8</v>
@@ -5809,23 +4969,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>396</v>
+      <c r="C128">
+        <v>8850477882836</v>
       </c>
       <c r="F128" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G128" t="s">
-        <v>532</v>
-      </c>
-      <c r="H128" t="s">
-        <v>560</v>
+        <v>300</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
       </c>
       <c r="I128" s="2">
         <v>44627.38034722222</v>
       </c>
       <c r="J128" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K128">
         <v>9</v>
@@ -5838,23 +4998,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>397</v>
+      <c r="C129">
+        <v>8850477255319</v>
       </c>
       <c r="F129" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>532</v>
-      </c>
-      <c r="H129" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H129">
+        <v>18</v>
       </c>
       <c r="I129" s="2">
         <v>44627.38053240741</v>
       </c>
       <c r="J129" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K129">
         <v>9</v>
@@ -5867,23 +5027,23 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>398</v>
+      <c r="C130">
+        <v>8850477253018</v>
       </c>
       <c r="F130" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G130" t="s">
-        <v>532</v>
-      </c>
-      <c r="H130" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H130">
+        <v>18</v>
       </c>
       <c r="I130" s="2">
         <v>44627.380625</v>
       </c>
       <c r="J130" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -5896,23 +5056,23 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>399</v>
+      <c r="C131">
+        <v>8850477254077</v>
       </c>
       <c r="F131" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G131" t="s">
-        <v>532</v>
-      </c>
-      <c r="H131" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H131">
+        <v>10</v>
       </c>
       <c r="I131" s="2">
         <v>44627.38168981481</v>
       </c>
       <c r="J131" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K131">
         <v>9</v>
@@ -5925,23 +5085,23 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>400</v>
+      <c r="C132">
+        <v>8850477023222</v>
       </c>
       <c r="F132" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G132" t="s">
-        <v>532</v>
-      </c>
-      <c r="H132" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H132">
+        <v>20</v>
       </c>
       <c r="I132" s="2">
         <v>44627.38173611111</v>
       </c>
       <c r="J132" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K132">
         <v>9</v>
@@ -5954,23 +5114,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>401</v>
+      <c r="C133">
+        <v>8850477371019</v>
       </c>
       <c r="F133" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>532</v>
-      </c>
-      <c r="H133" t="s">
-        <v>562</v>
+        <v>300</v>
+      </c>
+      <c r="H133">
+        <v>15</v>
       </c>
       <c r="I133" s="2">
         <v>44627.38760416667</v>
       </c>
       <c r="J133" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K133">
         <v>9</v>
@@ -5983,23 +5143,23 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>402</v>
+      <c r="C134">
+        <v>8850477259157</v>
       </c>
       <c r="F134" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G134" t="s">
-        <v>532</v>
-      </c>
-      <c r="H134" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H134">
+        <v>10</v>
       </c>
       <c r="I134" s="2">
         <v>44627.38984953704</v>
       </c>
       <c r="J134" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K134">
         <v>9</v>
@@ -6012,23 +5172,23 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>403</v>
+      <c r="C135">
+        <v>8850477253711</v>
       </c>
       <c r="F135" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G135" t="s">
-        <v>532</v>
-      </c>
-      <c r="H135" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H135">
+        <v>10</v>
       </c>
       <c r="I135" s="2">
         <v>44627.39142361111</v>
       </c>
       <c r="J135" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K135">
         <v>9</v>
@@ -6041,20 +5201,20 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>404</v>
+      <c r="C136">
+        <v>4719871988572</v>
       </c>
       <c r="F136" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G136" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I136" s="2">
         <v>44627.43267361111</v>
       </c>
       <c r="J136" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K136">
         <v>10</v>
@@ -6067,20 +5227,20 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>405</v>
+      <c r="C137">
+        <v>4719871982754</v>
       </c>
       <c r="F137" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G137" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I137" s="2">
         <v>44627.4330787037</v>
       </c>
       <c r="J137" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K137">
         <v>10</v>
@@ -6093,20 +5253,20 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>406</v>
+      <c r="C138">
+        <v>4719871988923</v>
       </c>
       <c r="F138" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G138" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I138" s="2">
         <v>44627.43362268519</v>
       </c>
       <c r="J138" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K138">
         <v>10</v>
@@ -6119,20 +5279,20 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>407</v>
+      <c r="C139">
+        <v>4719871988909</v>
       </c>
       <c r="F139" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I139" s="2">
         <v>44627.43457175926</v>
       </c>
       <c r="J139" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K139">
         <v>10</v>
@@ -6145,20 +5305,20 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>408</v>
+      <c r="C140">
+        <v>4716521731946</v>
       </c>
       <c r="F140" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G140" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I140" s="2">
         <v>44627.43481481481</v>
       </c>
       <c r="J140" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K140">
         <v>10</v>
@@ -6171,20 +5331,20 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>409</v>
+      <c r="C141">
+        <v>4716521772437</v>
       </c>
       <c r="F141" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I141" s="2">
         <v>44627.43493055556</v>
       </c>
       <c r="J141" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K141">
         <v>10</v>
@@ -6197,20 +5357,20 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>410</v>
+      <c r="C142">
+        <v>4719871988879</v>
       </c>
       <c r="F142" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G142" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I142" s="2">
         <v>44627.43512731481</v>
       </c>
       <c r="J142" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K142">
         <v>10</v>
@@ -6223,20 +5383,20 @@
       <c r="B143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>411</v>
+      <c r="C143">
+        <v>4716521734305</v>
       </c>
       <c r="F143" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G143" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I143" s="2">
         <v>44627.43525462963</v>
       </c>
       <c r="J143" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K143">
         <v>10</v>
@@ -6249,20 +5409,20 @@
       <c r="B144" t="s">
         <v>153</v>
       </c>
-      <c r="C144" t="s">
-        <v>412</v>
+      <c r="C144">
+        <v>4719871980026</v>
       </c>
       <c r="F144" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I144" s="2">
         <v>44627.43542824074</v>
       </c>
       <c r="J144" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K144">
         <v>10</v>
@@ -6275,20 +5435,20 @@
       <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>412</v>
+      <c r="C145">
+        <v>4719871980026</v>
       </c>
       <c r="F145" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I145" s="2">
         <v>44627.43633101852</v>
       </c>
       <c r="J145" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K145">
         <v>10</v>
@@ -6301,23 +5461,23 @@
       <c r="B146" t="s">
         <v>155</v>
       </c>
-      <c r="C146" t="s">
-        <v>413</v>
+      <c r="C146">
+        <v>4711148400190</v>
       </c>
       <c r="F146" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>532</v>
-      </c>
-      <c r="H146" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H146">
+        <v>80</v>
       </c>
       <c r="I146" s="2">
         <v>44627.44390046296</v>
       </c>
       <c r="J146" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K146">
         <v>10</v>
@@ -6330,23 +5490,23 @@
       <c r="B147" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>414</v>
+      <c r="C147">
+        <v>4719881251949</v>
       </c>
       <c r="F147" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G147" t="s">
-        <v>532</v>
-      </c>
-      <c r="H147" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H147">
+        <v>80</v>
       </c>
       <c r="I147" s="2">
         <v>44627.44401620371</v>
       </c>
       <c r="J147" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K147">
         <v>10</v>
@@ -6359,23 +5519,23 @@
       <c r="B148" t="s">
         <v>157</v>
       </c>
-      <c r="C148" t="s">
-        <v>415</v>
+      <c r="C148">
+        <v>4711148403399</v>
       </c>
       <c r="F148" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G148" t="s">
-        <v>532</v>
-      </c>
-      <c r="H148" t="s">
-        <v>541</v>
+        <v>300</v>
+      </c>
+      <c r="H148">
+        <v>40</v>
       </c>
       <c r="I148" s="2">
         <v>44627.44415509259</v>
       </c>
       <c r="J148" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K148">
         <v>10</v>
@@ -6388,23 +5548,23 @@
       <c r="B149" t="s">
         <v>158</v>
       </c>
-      <c r="C149" t="s">
-        <v>416</v>
+      <c r="C149">
+        <v>4719881250041</v>
       </c>
       <c r="F149" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G149" t="s">
-        <v>532</v>
-      </c>
-      <c r="H149" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H149">
+        <v>80</v>
       </c>
       <c r="I149" s="2">
         <v>44627.44418981481</v>
       </c>
       <c r="J149" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K149">
         <v>10</v>
@@ -6418,22 +5578,22 @@
         <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G150" t="s">
-        <v>532</v>
-      </c>
-      <c r="H150" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H150">
+        <v>90</v>
       </c>
       <c r="I150" s="2">
         <v>44627.44513888889</v>
       </c>
       <c r="J150" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K150">
         <v>10</v>
@@ -6447,22 +5607,22 @@
         <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G151" t="s">
-        <v>532</v>
-      </c>
-      <c r="H151" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H151">
+        <v>90</v>
       </c>
       <c r="I151" s="2">
         <v>44627.44541666667</v>
       </c>
       <c r="J151" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K151">
         <v>10</v>
@@ -6476,22 +5636,22 @@
         <v>161</v>
       </c>
       <c r="C152" t="s">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G152" t="s">
-        <v>532</v>
-      </c>
-      <c r="H152" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H152">
+        <v>90</v>
       </c>
       <c r="I152" s="2">
         <v>44627.44625</v>
       </c>
       <c r="J152" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K152">
         <v>10</v>
@@ -6505,22 +5665,22 @@
         <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G153" t="s">
-        <v>532</v>
-      </c>
-      <c r="H153" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H153">
+        <v>90</v>
       </c>
       <c r="I153" s="2">
         <v>44627.44627314815</v>
       </c>
       <c r="J153" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K153">
         <v>10</v>
@@ -6534,22 +5694,22 @@
         <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>421</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G154" t="s">
-        <v>532</v>
-      </c>
-      <c r="H154" t="s">
-        <v>564</v>
+        <v>300</v>
+      </c>
+      <c r="H154">
+        <v>200</v>
       </c>
       <c r="I154" s="2">
         <v>44627.45150462963</v>
       </c>
       <c r="J154" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K154">
         <v>10</v>
@@ -6563,22 +5723,22 @@
         <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G155" t="s">
-        <v>532</v>
-      </c>
-      <c r="H155" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H155">
+        <v>100</v>
       </c>
       <c r="I155" s="2">
         <v>44627.45168981481</v>
       </c>
       <c r="J155" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K155">
         <v>10</v>
@@ -6592,22 +5752,22 @@
         <v>165</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G156" t="s">
-        <v>532</v>
-      </c>
-      <c r="H156" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H156">
+        <v>100</v>
       </c>
       <c r="I156" s="2">
         <v>44627.45174768518</v>
       </c>
       <c r="J156" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K156">
         <v>10</v>
@@ -6620,23 +5780,23 @@
       <c r="B157" t="s">
         <v>166</v>
       </c>
-      <c r="C157" t="s">
-        <v>424</v>
+      <c r="C157">
+        <v>4712959009220</v>
       </c>
       <c r="F157" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G157" t="s">
-        <v>532</v>
-      </c>
-      <c r="H157" t="s">
-        <v>565</v>
+        <v>300</v>
+      </c>
+      <c r="H157">
+        <v>204</v>
       </c>
       <c r="I157" s="2">
         <v>44627.45431712963</v>
       </c>
       <c r="J157" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K157">
         <v>10</v>
@@ -6649,23 +5809,23 @@
       <c r="B158" t="s">
         <v>167</v>
       </c>
-      <c r="C158" t="s">
-        <v>425</v>
+      <c r="C158">
+        <v>4712959013715</v>
       </c>
       <c r="F158" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G158" t="s">
-        <v>532</v>
-      </c>
-      <c r="H158" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H158">
+        <v>24</v>
       </c>
       <c r="I158" s="2">
         <v>44627.45439814815</v>
       </c>
       <c r="J158" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K158">
         <v>10</v>
@@ -6678,23 +5838,23 @@
       <c r="B159" t="s">
         <v>168</v>
       </c>
-      <c r="C159" t="s">
-        <v>426</v>
+      <c r="C159">
+        <v>4712959010400</v>
       </c>
       <c r="F159" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G159" t="s">
-        <v>532</v>
-      </c>
-      <c r="H159" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
       </c>
       <c r="I159" s="2">
         <v>44627.45446759259</v>
       </c>
       <c r="J159" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K159">
         <v>10</v>
@@ -6707,23 +5867,23 @@
       <c r="B160" t="s">
         <v>169</v>
       </c>
-      <c r="C160" t="s">
-        <v>427</v>
+      <c r="C160">
+        <v>4710036394917</v>
       </c>
       <c r="F160" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G160" t="s">
-        <v>532</v>
-      </c>
-      <c r="H160" t="s">
-        <v>566</v>
+        <v>300</v>
+      </c>
+      <c r="H160">
+        <v>300</v>
       </c>
       <c r="I160" s="2">
         <v>44627.52064814815</v>
       </c>
       <c r="J160" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K160">
         <v>12</v>
@@ -6736,23 +5896,23 @@
       <c r="B161" t="s">
         <v>170</v>
       </c>
-      <c r="C161" t="s">
-        <v>428</v>
+      <c r="C161">
+        <v>4710114882350</v>
       </c>
       <c r="F161" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G161" t="s">
-        <v>532</v>
-      </c>
-      <c r="H161" t="s">
-        <v>567</v>
+        <v>300</v>
+      </c>
+      <c r="H161">
+        <v>700</v>
       </c>
       <c r="I161" s="2">
         <v>44627.52072916667</v>
       </c>
       <c r="J161" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K161">
         <v>12</v>
@@ -6765,23 +5925,23 @@
       <c r="B162" t="s">
         <v>171</v>
       </c>
-      <c r="C162" t="s">
-        <v>429</v>
+      <c r="C162">
+        <v>4710564511640</v>
       </c>
       <c r="F162" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G162" t="s">
-        <v>532</v>
-      </c>
-      <c r="H162" t="s">
-        <v>568</v>
+        <v>300</v>
+      </c>
+      <c r="H162">
+        <v>250</v>
       </c>
       <c r="I162" s="2">
         <v>44627.52101851852</v>
       </c>
       <c r="J162" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K162">
         <v>12</v>
@@ -6794,23 +5954,23 @@
       <c r="B163" t="s">
         <v>172</v>
       </c>
-      <c r="C163" t="s">
-        <v>430</v>
+      <c r="C163">
+        <v>4710564511664</v>
       </c>
       <c r="F163" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G163" t="s">
-        <v>532</v>
-      </c>
-      <c r="H163" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H163">
+        <v>100</v>
       </c>
       <c r="I163" s="2">
         <v>44627.52101851852</v>
       </c>
       <c r="J163" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K163">
         <v>12</v>
@@ -6823,23 +5983,23 @@
       <c r="B164" t="s">
         <v>173</v>
       </c>
-      <c r="C164" t="s">
-        <v>431</v>
+      <c r="C164">
+        <v>4710564512326</v>
       </c>
       <c r="F164" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G164" t="s">
-        <v>532</v>
-      </c>
-      <c r="H164" t="s">
-        <v>569</v>
+        <v>300</v>
+      </c>
+      <c r="H164">
+        <v>125</v>
       </c>
       <c r="I164" s="2">
         <v>44627.52136574074</v>
       </c>
       <c r="J164" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K164">
         <v>12</v>
@@ -6852,23 +6012,23 @@
       <c r="B165" t="s">
         <v>174</v>
       </c>
-      <c r="C165" t="s">
-        <v>432</v>
+      <c r="C165">
+        <v>4710564512111</v>
       </c>
       <c r="F165" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G165" t="s">
-        <v>532</v>
-      </c>
-      <c r="H165" t="s">
-        <v>540</v>
+        <v>300</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
       </c>
       <c r="I165" s="2">
         <v>44627.52170138889</v>
       </c>
       <c r="J165" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K165">
         <v>12</v>
@@ -6881,23 +6041,23 @@
       <c r="B166" t="s">
         <v>175</v>
       </c>
-      <c r="C166" t="s">
-        <v>433</v>
+      <c r="C166">
+        <v>4710564511725</v>
       </c>
       <c r="F166" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G166" t="s">
-        <v>532</v>
-      </c>
-      <c r="H166" t="s">
-        <v>570</v>
+        <v>300</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
       </c>
       <c r="I166" s="2">
         <v>44627.52225694444</v>
       </c>
       <c r="J166" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K166">
         <v>12</v>
@@ -6910,23 +6070,23 @@
       <c r="B167" t="s">
         <v>176</v>
       </c>
-      <c r="C167" t="s">
-        <v>434</v>
+      <c r="C167">
+        <v>4710564510681</v>
       </c>
       <c r="F167" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G167" t="s">
-        <v>532</v>
-      </c>
-      <c r="H167" t="s">
-        <v>561</v>
+        <v>300</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
       </c>
       <c r="I167" s="2">
         <v>44627.52260416667</v>
       </c>
       <c r="J167" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K167">
         <v>12</v>
@@ -6939,23 +6099,23 @@
       <c r="B168" t="s">
         <v>177</v>
       </c>
-      <c r="C168" t="s">
-        <v>435</v>
+      <c r="C168">
+        <v>4713008110010</v>
       </c>
       <c r="F168" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G168" t="s">
-        <v>532</v>
-      </c>
-      <c r="H168" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H168">
+        <v>10</v>
       </c>
       <c r="I168" s="2">
         <v>44627.52319444445</v>
       </c>
       <c r="J168" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K168">
         <v>12</v>
@@ -6968,23 +6128,23 @@
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" t="s">
-        <v>436</v>
+      <c r="C169">
+        <v>30768001667</v>
       </c>
       <c r="F169" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G169" t="s">
-        <v>532</v>
-      </c>
-      <c r="H169" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H169">
+        <v>10</v>
       </c>
       <c r="I169" s="2">
         <v>44627.52361111111</v>
       </c>
       <c r="J169" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K169">
         <v>12</v>
@@ -6997,23 +6157,23 @@
       <c r="B170" t="s">
         <v>179</v>
       </c>
-      <c r="C170" t="s">
-        <v>437</v>
+      <c r="C170">
+        <v>30768001711</v>
       </c>
       <c r="F170" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G170" t="s">
-        <v>532</v>
-      </c>
-      <c r="H170" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H170">
+        <v>5</v>
       </c>
       <c r="I170" s="2">
         <v>44627.52400462963</v>
       </c>
       <c r="J170" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K170">
         <v>12</v>
@@ -7026,20 +6186,20 @@
       <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
-        <v>438</v>
+      <c r="C171">
+        <v>30768006013</v>
       </c>
       <c r="F171" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G171" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I171" s="2">
         <v>44627.52443287037</v>
       </c>
       <c r="J171" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K171">
         <v>12</v>
@@ -7052,20 +6212,20 @@
       <c r="B172" t="s">
         <v>181</v>
       </c>
-      <c r="C172" t="s">
-        <v>439</v>
+      <c r="C172">
+        <v>30768003852</v>
       </c>
       <c r="F172" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G172" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I172" s="2">
         <v>44627.52483796296</v>
       </c>
       <c r="J172" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K172">
         <v>12</v>
@@ -7078,20 +6238,20 @@
       <c r="B173" t="s">
         <v>182</v>
       </c>
-      <c r="C173" t="s">
-        <v>440</v>
+      <c r="C173">
+        <v>30768003838</v>
       </c>
       <c r="F173" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G173" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I173" s="2">
         <v>44627.52511574074</v>
       </c>
       <c r="J173" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K173">
         <v>12</v>
@@ -7104,23 +6264,23 @@
       <c r="B174" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
-        <v>441</v>
+      <c r="C174">
+        <v>30768003845</v>
       </c>
       <c r="F174" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G174" t="s">
-        <v>532</v>
-      </c>
-      <c r="H174" t="s">
-        <v>561</v>
+        <v>300</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
       </c>
       <c r="I174" s="2">
         <v>44627.52443287037</v>
       </c>
       <c r="J174" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K174">
         <v>12</v>
@@ -7133,23 +6293,23 @@
       <c r="B175" t="s">
         <v>184</v>
       </c>
-      <c r="C175" t="s">
-        <v>442</v>
+      <c r="C175">
+        <v>30768005306</v>
       </c>
       <c r="F175" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G175" t="s">
-        <v>532</v>
-      </c>
-      <c r="H175" t="s">
-        <v>561</v>
+        <v>300</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
       </c>
       <c r="I175" s="2">
         <v>44627.52483796296</v>
       </c>
       <c r="J175" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K175">
         <v>12</v>
@@ -7162,23 +6322,23 @@
       <c r="B176" t="s">
         <v>185</v>
       </c>
-      <c r="C176" t="s">
-        <v>443</v>
+      <c r="C176">
+        <v>30768672294</v>
       </c>
       <c r="F176" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G176" t="s">
-        <v>532</v>
-      </c>
-      <c r="H176" t="s">
-        <v>570</v>
+        <v>300</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
       </c>
       <c r="I176" s="2">
         <v>44627.52511574074</v>
       </c>
       <c r="J176" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K176">
         <v>12</v>
@@ -7191,23 +6351,23 @@
       <c r="B177" t="s">
         <v>186</v>
       </c>
-      <c r="C177" t="s">
-        <v>444</v>
+      <c r="C177">
+        <v>4260332412513</v>
       </c>
       <c r="F177" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G177" t="s">
-        <v>532</v>
-      </c>
-      <c r="H177" t="s">
-        <v>564</v>
+        <v>300</v>
+      </c>
+      <c r="H177">
+        <v>200</v>
       </c>
       <c r="I177" s="2">
         <v>44627.53018518518</v>
       </c>
       <c r="J177" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K177">
         <v>12</v>
@@ -7220,23 +6380,23 @@
       <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" t="s">
-        <v>445</v>
+      <c r="C178">
+        <v>4260332411608</v>
       </c>
       <c r="F178" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G178" t="s">
-        <v>532</v>
-      </c>
-      <c r="H178" t="s">
-        <v>564</v>
+        <v>300</v>
+      </c>
+      <c r="H178">
+        <v>200</v>
       </c>
       <c r="I178" s="2">
         <v>44627.53021990741</v>
       </c>
       <c r="J178" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K178">
         <v>12</v>
@@ -7249,23 +6409,23 @@
       <c r="B179" t="s">
         <v>188</v>
       </c>
-      <c r="C179" t="s">
-        <v>446</v>
+      <c r="C179">
+        <v>4710332290364</v>
       </c>
       <c r="F179" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G179" t="s">
-        <v>532</v>
-      </c>
-      <c r="H179" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H179">
+        <v>24</v>
       </c>
       <c r="I179" s="2">
         <v>44627.53069444445</v>
       </c>
       <c r="J179" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K179">
         <v>12</v>
@@ -7278,23 +6438,23 @@
       <c r="B180" t="s">
         <v>189</v>
       </c>
-      <c r="C180" t="s">
-        <v>447</v>
+      <c r="C180">
+        <v>4895173235498</v>
       </c>
       <c r="F180" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G180" t="s">
-        <v>532</v>
-      </c>
-      <c r="H180" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H180">
+        <v>12</v>
       </c>
       <c r="I180" s="2">
         <v>44627.53168981482</v>
       </c>
       <c r="J180" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K180">
         <v>12</v>
@@ -7307,23 +6467,23 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" t="s">
-        <v>448</v>
+      <c r="C181">
+        <v>4710332291088</v>
       </c>
       <c r="F181" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G181" t="s">
-        <v>532</v>
-      </c>
-      <c r="H181" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H181">
+        <v>36</v>
       </c>
       <c r="I181" s="2">
         <v>44627.53168981482</v>
       </c>
       <c r="J181" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K181">
         <v>12</v>
@@ -7336,23 +6496,23 @@
       <c r="B182" t="s">
         <v>191</v>
       </c>
-      <c r="C182" t="s">
-        <v>449</v>
+      <c r="C182">
+        <v>8850163138230</v>
       </c>
       <c r="F182" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G182" t="s">
-        <v>532</v>
-      </c>
-      <c r="H182" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H182">
+        <v>100</v>
       </c>
       <c r="I182" s="2">
         <v>44627.53168981482</v>
       </c>
       <c r="J182" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K182">
         <v>12</v>
@@ -7365,23 +6525,23 @@
       <c r="B183" t="s">
         <v>192</v>
       </c>
-      <c r="C183" t="s">
-        <v>450</v>
+      <c r="C183">
+        <v>4895173256738</v>
       </c>
       <c r="F183" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G183" t="s">
-        <v>532</v>
-      </c>
-      <c r="H183" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H183">
+        <v>36</v>
       </c>
       <c r="I183" s="2">
         <v>44627.53203703704</v>
       </c>
       <c r="J183" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K183">
         <v>12</v>
@@ -7394,23 +6554,23 @@
       <c r="B184" t="s">
         <v>193</v>
       </c>
-      <c r="C184" t="s">
-        <v>451</v>
+      <c r="C184">
+        <v>4895173254246</v>
       </c>
       <c r="F184" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G184" t="s">
-        <v>532</v>
-      </c>
-      <c r="H184" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H184">
+        <v>60</v>
       </c>
       <c r="I184" s="2">
         <v>44627.5324537037</v>
       </c>
       <c r="J184" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K184">
         <v>12</v>
@@ -7423,23 +6583,23 @@
       <c r="B185" t="s">
         <v>194</v>
       </c>
-      <c r="C185" t="s">
-        <v>452</v>
+      <c r="C185">
+        <v>4002000008</v>
       </c>
       <c r="F185" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G185" t="s">
-        <v>532</v>
-      </c>
-      <c r="H185" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H185">
+        <v>12</v>
       </c>
       <c r="I185" s="2">
         <v>44627.53511574074</v>
       </c>
       <c r="J185" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K185">
         <v>12</v>
@@ -7452,23 +6612,23 @@
       <c r="B186" t="s">
         <v>195</v>
       </c>
-      <c r="C186" t="s">
-        <v>453</v>
+      <c r="C186">
+        <v>4003000008</v>
       </c>
       <c r="F186" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G186" t="s">
-        <v>532</v>
-      </c>
-      <c r="H186" t="s">
-        <v>571</v>
+        <v>300</v>
+      </c>
+      <c r="H186">
+        <v>9</v>
       </c>
       <c r="I186" s="2">
         <v>44627.53525462963</v>
       </c>
       <c r="J186" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K186">
         <v>12</v>
@@ -7481,23 +6641,23 @@
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="C187" t="s">
-        <v>454</v>
+      <c r="C187">
+        <v>4002000004</v>
       </c>
       <c r="F187" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G187" t="s">
-        <v>532</v>
-      </c>
-      <c r="H187" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H187">
+        <v>12</v>
       </c>
       <c r="I187" s="2">
         <v>44627.53561342593</v>
       </c>
       <c r="J187" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K187">
         <v>12</v>
@@ -7510,23 +6670,23 @@
       <c r="B188" t="s">
         <v>197</v>
       </c>
-      <c r="C188" t="s">
-        <v>455</v>
+      <c r="C188">
+        <v>4002000009</v>
       </c>
       <c r="F188" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G188" t="s">
-        <v>532</v>
-      </c>
-      <c r="H188" t="s">
-        <v>551</v>
+        <v>300</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
       </c>
       <c r="I188" s="2">
         <v>44627.53576388889</v>
       </c>
       <c r="J188" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K188">
         <v>12</v>
@@ -7539,20 +6699,20 @@
       <c r="B189" t="s">
         <v>198</v>
       </c>
-      <c r="C189" t="s">
-        <v>456</v>
+      <c r="C189">
+        <v>4973167280072</v>
       </c>
       <c r="F189" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G189" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="I189" s="2">
         <v>44627.58658564815</v>
       </c>
       <c r="J189" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K189">
         <v>14</v>
@@ -7565,23 +6725,23 @@
       <c r="B190" t="s">
         <v>199</v>
       </c>
-      <c r="C190" t="s">
-        <v>457</v>
+      <c r="C190">
+        <v>74198990511</v>
       </c>
       <c r="F190" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G190" t="s">
-        <v>532</v>
-      </c>
-      <c r="H190" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H190">
+        <v>90</v>
       </c>
       <c r="I190" s="2">
         <v>44627.59927083334</v>
       </c>
       <c r="J190" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K190">
         <v>14</v>
@@ -7594,23 +6754,23 @@
       <c r="B191" t="s">
         <v>200</v>
       </c>
-      <c r="C191" t="s">
-        <v>458</v>
+      <c r="C191">
+        <v>74198990023</v>
       </c>
       <c r="F191" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G191" t="s">
-        <v>532</v>
-      </c>
-      <c r="H191" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H191">
+        <v>60</v>
       </c>
       <c r="I191" s="2">
         <v>44627.60001157408</v>
       </c>
       <c r="J191" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K191">
         <v>14</v>
@@ -7623,23 +6783,23 @@
       <c r="B192" t="s">
         <v>201</v>
       </c>
-      <c r="C192" t="s">
-        <v>459</v>
+      <c r="C192">
+        <v>74198990504</v>
       </c>
       <c r="F192" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G192" t="s">
-        <v>532</v>
-      </c>
-      <c r="H192" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H192">
+        <v>90</v>
       </c>
       <c r="I192" s="2">
         <v>44627.60033564815</v>
       </c>
       <c r="J192" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K192">
         <v>14</v>
@@ -7652,23 +6812,23 @@
       <c r="B193" t="s">
         <v>202</v>
       </c>
-      <c r="C193" t="s">
-        <v>460</v>
+      <c r="C193">
+        <v>74198990016</v>
       </c>
       <c r="F193" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G193" t="s">
-        <v>532</v>
-      </c>
-      <c r="H193" t="s">
-        <v>540</v>
+        <v>300</v>
+      </c>
+      <c r="H193">
+        <v>30</v>
       </c>
       <c r="I193" s="2">
         <v>44627.60055555555</v>
       </c>
       <c r="J193" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K193">
         <v>14</v>
@@ -7681,23 +6841,23 @@
       <c r="B194" t="s">
         <v>203</v>
       </c>
-      <c r="C194" t="s">
-        <v>461</v>
+      <c r="C194">
+        <v>74198990115</v>
       </c>
       <c r="F194" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G194" t="s">
-        <v>532</v>
-      </c>
-      <c r="H194" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H194">
+        <v>90</v>
       </c>
       <c r="I194" s="2">
         <v>44627.60583333333</v>
       </c>
       <c r="J194" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K194">
         <v>14</v>
@@ -7710,23 +6870,23 @@
       <c r="B195" t="s">
         <v>204</v>
       </c>
-      <c r="C195" t="s">
-        <v>462</v>
+      <c r="C195">
+        <v>74198614271</v>
       </c>
       <c r="F195" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G195" t="s">
-        <v>532</v>
-      </c>
-      <c r="H195" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H195">
+        <v>5</v>
       </c>
       <c r="I195" s="2">
         <v>44627.60688657407</v>
       </c>
       <c r="J195" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K195">
         <v>14</v>
@@ -7739,23 +6899,23 @@
       <c r="B196" t="s">
         <v>205</v>
       </c>
-      <c r="C196" t="s">
-        <v>463</v>
+      <c r="C196">
+        <v>74198990122</v>
       </c>
       <c r="F196" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G196" t="s">
-        <v>532</v>
-      </c>
-      <c r="H196" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H196">
+        <v>80</v>
       </c>
       <c r="I196" s="2">
         <v>44627.61924768519</v>
       </c>
       <c r="J196" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K196">
         <v>14</v>
@@ -7768,23 +6928,23 @@
       <c r="B197" t="s">
         <v>206</v>
       </c>
-      <c r="C197" t="s">
-        <v>464</v>
+      <c r="C197">
+        <v>4710660884174</v>
       </c>
       <c r="F197" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G197" t="s">
-        <v>532</v>
-      </c>
-      <c r="H197" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H197">
+        <v>12</v>
       </c>
       <c r="I197" s="2">
         <v>44627.47655092592</v>
       </c>
       <c r="J197" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K197">
         <v>11</v>
@@ -7797,23 +6957,23 @@
       <c r="B198" t="s">
         <v>207</v>
       </c>
-      <c r="C198" t="s">
-        <v>465</v>
+      <c r="C198">
+        <v>4710660882668</v>
       </c>
       <c r="F198" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G198" t="s">
-        <v>532</v>
-      </c>
-      <c r="H198" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H198">
+        <v>24</v>
       </c>
       <c r="I198" s="2">
         <v>44627.47657407408</v>
       </c>
       <c r="J198" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K198">
         <v>11</v>
@@ -7826,23 +6986,23 @@
       <c r="B199" t="s">
         <v>208</v>
       </c>
-      <c r="C199" t="s">
-        <v>466</v>
+      <c r="C199">
+        <v>4710660882675</v>
       </c>
       <c r="F199" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G199" t="s">
-        <v>532</v>
-      </c>
-      <c r="H199" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H199">
+        <v>12</v>
       </c>
       <c r="I199" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J199" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K199">
         <v>11</v>
@@ -7855,23 +7015,23 @@
       <c r="B200" t="s">
         <v>209</v>
       </c>
-      <c r="C200" t="s">
-        <v>467</v>
+      <c r="C200">
+        <v>4710660886291</v>
       </c>
       <c r="F200" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G200" t="s">
-        <v>532</v>
-      </c>
-      <c r="H200" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H200">
+        <v>12</v>
       </c>
       <c r="I200" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J200" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K200">
         <v>11</v>
@@ -7884,23 +7044,23 @@
       <c r="B201" t="s">
         <v>210</v>
       </c>
-      <c r="C201" t="s">
-        <v>468</v>
+      <c r="C201">
+        <v>4710660884655</v>
       </c>
       <c r="F201" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G201" t="s">
-        <v>532</v>
-      </c>
-      <c r="H201" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H201">
+        <v>36</v>
       </c>
       <c r="I201" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J201" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K201">
         <v>11</v>
@@ -7913,23 +7073,23 @@
       <c r="B202" t="s">
         <v>211</v>
       </c>
-      <c r="C202" t="s">
-        <v>469</v>
+      <c r="C202">
+        <v>4710660884136</v>
       </c>
       <c r="F202" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G202" t="s">
-        <v>532</v>
-      </c>
-      <c r="H202" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H202">
+        <v>12</v>
       </c>
       <c r="I202" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J202" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K202">
         <v>11</v>
@@ -7942,23 +7102,23 @@
       <c r="B203" t="s">
         <v>212</v>
       </c>
-      <c r="C203" t="s">
-        <v>470</v>
+      <c r="C203">
+        <v>4710660884686</v>
       </c>
       <c r="F203" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G203" t="s">
-        <v>532</v>
-      </c>
-      <c r="H203" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H203">
+        <v>12</v>
       </c>
       <c r="I203" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J203" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K203">
         <v>11</v>
@@ -7971,23 +7131,23 @@
       <c r="B204" t="s">
         <v>213</v>
       </c>
-      <c r="C204" t="s">
-        <v>471</v>
+      <c r="C204">
+        <v>4710660883801</v>
       </c>
       <c r="F204" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G204" t="s">
-        <v>532</v>
-      </c>
-      <c r="H204" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H204">
+        <v>20</v>
       </c>
       <c r="I204" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J204" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K204">
         <v>11</v>
@@ -8000,23 +7160,23 @@
       <c r="B205" t="s">
         <v>214</v>
       </c>
-      <c r="C205" t="s">
-        <v>472</v>
+      <c r="C205">
+        <v>4710660882071</v>
       </c>
       <c r="F205" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G205" t="s">
-        <v>532</v>
-      </c>
-      <c r="H205" t="s">
-        <v>537</v>
+        <v>300</v>
+      </c>
+      <c r="H205">
+        <v>25</v>
       </c>
       <c r="I205" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J205" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K205">
         <v>11</v>
@@ -8029,23 +7189,23 @@
       <c r="B206" t="s">
         <v>215</v>
       </c>
-      <c r="C206" t="s">
-        <v>473</v>
+      <c r="C206">
+        <v>4710660885577</v>
       </c>
       <c r="F206" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G206" t="s">
-        <v>532</v>
-      </c>
-      <c r="H206" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H206">
+        <v>12</v>
       </c>
       <c r="I206" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J206" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K206">
         <v>11</v>
@@ -8058,23 +7218,23 @@
       <c r="B207" t="s">
         <v>216</v>
       </c>
-      <c r="C207" t="s">
-        <v>474</v>
+      <c r="C207">
+        <v>4710660885560</v>
       </c>
       <c r="F207" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G207" t="s">
-        <v>532</v>
-      </c>
-      <c r="H207" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H207">
+        <v>12</v>
       </c>
       <c r="I207" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J207" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K207">
         <v>11</v>
@@ -8087,23 +7247,23 @@
       <c r="B208" t="s">
         <v>217</v>
       </c>
-      <c r="C208" t="s">
-        <v>475</v>
+      <c r="C208">
+        <v>4710660886239</v>
       </c>
       <c r="F208" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G208" t="s">
-        <v>532</v>
-      </c>
-      <c r="H208" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H208">
+        <v>12</v>
       </c>
       <c r="I208" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J208" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K208">
         <v>11</v>
@@ -8116,23 +7276,23 @@
       <c r="B209" t="s">
         <v>218</v>
       </c>
-      <c r="C209" t="s">
-        <v>476</v>
+      <c r="C209">
+        <v>4710660884129</v>
       </c>
       <c r="F209" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G209" t="s">
-        <v>532</v>
-      </c>
-      <c r="H209" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H209">
+        <v>12</v>
       </c>
       <c r="I209" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J209" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K209">
         <v>11</v>
@@ -8145,23 +7305,23 @@
       <c r="B210" t="s">
         <v>219</v>
       </c>
-      <c r="C210" t="s">
-        <v>477</v>
+      <c r="C210">
+        <v>4710660884563</v>
       </c>
       <c r="F210" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G210" t="s">
-        <v>532</v>
-      </c>
-      <c r="H210" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H210">
+        <v>12</v>
       </c>
       <c r="I210" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J210" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K210">
         <v>11</v>
@@ -8174,23 +7334,23 @@
       <c r="B211" t="s">
         <v>220</v>
       </c>
-      <c r="C211" t="s">
-        <v>478</v>
+      <c r="C211">
+        <v>4710660884181</v>
       </c>
       <c r="F211" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G211" t="s">
-        <v>532</v>
-      </c>
-      <c r="H211" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H211">
+        <v>36</v>
       </c>
       <c r="I211" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J211" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K211">
         <v>11</v>
@@ -8203,23 +7363,23 @@
       <c r="B212" t="s">
         <v>221</v>
       </c>
-      <c r="C212" t="s">
-        <v>479</v>
+      <c r="C212">
+        <v>4710660884631</v>
       </c>
       <c r="F212" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G212" t="s">
-        <v>532</v>
-      </c>
-      <c r="H212" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H212">
+        <v>12</v>
       </c>
       <c r="I212" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J212" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K212">
         <v>11</v>
@@ -8232,23 +7392,23 @@
       <c r="B213" t="s">
         <v>222</v>
       </c>
-      <c r="C213" t="s">
-        <v>480</v>
+      <c r="C213">
+        <v>4710660884143</v>
       </c>
       <c r="F213" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G213" t="s">
-        <v>532</v>
-      </c>
-      <c r="H213" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H213">
+        <v>12</v>
       </c>
       <c r="I213" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J213" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K213">
         <v>11</v>
@@ -8261,23 +7421,23 @@
       <c r="B214" t="s">
         <v>223</v>
       </c>
-      <c r="C214" t="s">
-        <v>481</v>
+      <c r="C214">
+        <v>4710660884556</v>
       </c>
       <c r="F214" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G214" t="s">
-        <v>532</v>
-      </c>
-      <c r="H214" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H214">
+        <v>24</v>
       </c>
       <c r="I214" s="2">
         <v>44627.47751157408</v>
       </c>
       <c r="J214" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K214">
         <v>11</v>
@@ -8290,23 +7450,23 @@
       <c r="B215" t="s">
         <v>224</v>
       </c>
-      <c r="C215" t="s">
-        <v>482</v>
+      <c r="C215">
+        <v>14901121556533</v>
       </c>
       <c r="F215" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G215" t="s">
-        <v>532</v>
-      </c>
-      <c r="H215" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H215">
+        <v>100</v>
       </c>
       <c r="I215" s="2">
         <v>44627.49319444445</v>
       </c>
       <c r="J215" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K215">
         <v>11</v>
@@ -8319,23 +7479,23 @@
       <c r="B216" t="s">
         <v>225</v>
       </c>
-      <c r="C216" t="s">
-        <v>483</v>
+      <c r="C216">
+        <v>14901121506538</v>
       </c>
       <c r="F216" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G216" t="s">
-        <v>532</v>
-      </c>
-      <c r="H216" t="s">
-        <v>540</v>
+        <v>300</v>
+      </c>
+      <c r="H216">
+        <v>30</v>
       </c>
       <c r="I216" s="2">
         <v>44627.48534722222</v>
       </c>
       <c r="J216" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K216">
         <v>11</v>
@@ -8348,23 +7508,23 @@
       <c r="B217" t="s">
         <v>226</v>
       </c>
-      <c r="C217" t="s">
-        <v>484</v>
+      <c r="C217">
+        <v>14901121546534</v>
       </c>
       <c r="F217" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G217" t="s">
-        <v>532</v>
-      </c>
-      <c r="H217" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H217">
+        <v>100</v>
       </c>
       <c r="I217" s="2">
         <v>44627.48569444445</v>
       </c>
       <c r="J217" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K217">
         <v>11</v>
@@ -8377,23 +7537,23 @@
       <c r="B218" t="s">
         <v>227</v>
       </c>
-      <c r="C218" t="s">
-        <v>485</v>
+      <c r="C218">
+        <v>14901121556717</v>
       </c>
       <c r="F218" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G218" t="s">
-        <v>532</v>
-      </c>
-      <c r="H218" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H218">
+        <v>100</v>
       </c>
       <c r="I218" s="2">
         <v>44627.46775462963</v>
       </c>
       <c r="J218" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K218">
         <v>11</v>
@@ -8406,23 +7566,23 @@
       <c r="B219" t="s">
         <v>228</v>
       </c>
-      <c r="C219" t="s">
-        <v>486</v>
+      <c r="C219">
+        <v>4710036602517</v>
       </c>
       <c r="F219" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G219" t="s">
-        <v>532</v>
-      </c>
-      <c r="H219" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H219">
+        <v>48</v>
       </c>
       <c r="I219" s="2">
         <v>44627.45873842593</v>
       </c>
       <c r="J219" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K219">
         <v>11</v>
@@ -8435,23 +7595,23 @@
       <c r="B220" t="s">
         <v>229</v>
       </c>
-      <c r="C220" t="s">
-        <v>487</v>
+      <c r="C220">
+        <v>4710036586848</v>
       </c>
       <c r="F220" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G220" t="s">
-        <v>532</v>
-      </c>
-      <c r="H220" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H220">
+        <v>24</v>
       </c>
       <c r="I220" s="2">
         <v>44627.45893518518</v>
       </c>
       <c r="J220" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K220">
         <v>11</v>
@@ -8464,23 +7624,23 @@
       <c r="B221" t="s">
         <v>230</v>
       </c>
-      <c r="C221" t="s">
-        <v>488</v>
+      <c r="C221">
+        <v>4710036400427</v>
       </c>
       <c r="F221" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G221" t="s">
-        <v>532</v>
-      </c>
-      <c r="H221" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H221">
+        <v>12</v>
       </c>
       <c r="I221" s="2">
         <v>44627.45932870371</v>
       </c>
       <c r="J221" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K221">
         <v>11</v>
@@ -8493,23 +7653,23 @@
       <c r="B222" t="s">
         <v>231</v>
       </c>
-      <c r="C222" t="s">
-        <v>489</v>
+      <c r="C222">
+        <v>14710036402817</v>
       </c>
       <c r="F222" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G222" t="s">
-        <v>532</v>
-      </c>
-      <c r="H222" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H222">
+        <v>12</v>
       </c>
       <c r="I222" s="2">
         <v>44627.45935185185</v>
       </c>
       <c r="J222" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K222">
         <v>11</v>
@@ -8522,23 +7682,23 @@
       <c r="B223" t="s">
         <v>232</v>
       </c>
-      <c r="C223" t="s">
-        <v>490</v>
+      <c r="C223">
+        <v>4710036603125</v>
       </c>
       <c r="F223" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G223" t="s">
-        <v>532</v>
-      </c>
-      <c r="H223" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H223">
+        <v>48</v>
       </c>
       <c r="I223" s="2">
         <v>44627.45975694444</v>
       </c>
       <c r="J223" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K223">
         <v>11</v>
@@ -8551,23 +7711,23 @@
       <c r="B224" t="s">
         <v>233</v>
       </c>
-      <c r="C224" t="s">
-        <v>491</v>
+      <c r="C224">
+        <v>4710036604580</v>
       </c>
       <c r="F224" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G224" t="s">
-        <v>532</v>
-      </c>
-      <c r="H224" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H224">
+        <v>18</v>
       </c>
       <c r="I224" s="2">
         <v>44627.45979166667</v>
       </c>
       <c r="J224" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K224">
         <v>11</v>
@@ -8580,23 +7740,23 @@
       <c r="B225" t="s">
         <v>234</v>
       </c>
-      <c r="C225" t="s">
-        <v>492</v>
+      <c r="C225">
+        <v>4710036604597</v>
       </c>
       <c r="F225" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G225" t="s">
-        <v>532</v>
-      </c>
-      <c r="H225" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H225">
+        <v>18</v>
       </c>
       <c r="I225" s="2">
         <v>44627.45979166667</v>
       </c>
       <c r="J225" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K225">
         <v>11</v>
@@ -8609,23 +7769,23 @@
       <c r="B226" t="s">
         <v>235</v>
       </c>
-      <c r="C226" t="s">
-        <v>493</v>
+      <c r="C226">
+        <v>4710036402346</v>
       </c>
       <c r="F226" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G226" t="s">
-        <v>532</v>
-      </c>
-      <c r="H226" t="s">
-        <v>558</v>
+        <v>300</v>
+      </c>
+      <c r="H226">
+        <v>180</v>
       </c>
       <c r="I226" s="2">
         <v>44627.46076388889</v>
       </c>
       <c r="J226" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K226">
         <v>11</v>
@@ -8638,23 +7798,23 @@
       <c r="B227" t="s">
         <v>236</v>
       </c>
-      <c r="C227" t="s">
-        <v>494</v>
+      <c r="C227">
+        <v>4710036400076</v>
       </c>
       <c r="F227" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G227" t="s">
-        <v>532</v>
-      </c>
-      <c r="H227" t="s">
-        <v>534</v>
+        <v>300</v>
+      </c>
+      <c r="H227">
+        <v>24</v>
       </c>
       <c r="I227" s="2">
         <v>44627.46078703704</v>
       </c>
       <c r="J227" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K227">
         <v>11</v>
@@ -8667,23 +7827,23 @@
       <c r="B228" t="s">
         <v>237</v>
       </c>
-      <c r="C228" t="s">
-        <v>495</v>
+      <c r="C228">
+        <v>4710036402094</v>
       </c>
       <c r="F228" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G228" t="s">
-        <v>532</v>
-      </c>
-      <c r="H228" t="s">
-        <v>572</v>
+        <v>300</v>
+      </c>
+      <c r="H228">
+        <v>27</v>
       </c>
       <c r="I228" s="2">
         <v>44627.46078703704</v>
       </c>
       <c r="J228" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K228">
         <v>11</v>
@@ -8696,23 +7856,23 @@
       <c r="B229" t="s">
         <v>238</v>
       </c>
-      <c r="C229" t="s">
-        <v>496</v>
+      <c r="C229">
+        <v>8806190719522</v>
       </c>
       <c r="F229" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G229" t="s">
-        <v>532</v>
-      </c>
-      <c r="H229" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H229">
+        <v>80</v>
       </c>
       <c r="I229" s="2">
         <v>44627.46078703704</v>
       </c>
       <c r="J229" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K229">
         <v>11</v>
@@ -8725,23 +7885,23 @@
       <c r="B230" t="s">
         <v>239</v>
       </c>
-      <c r="C230" t="s">
-        <v>497</v>
+      <c r="C230">
+        <v>4710036394924</v>
       </c>
       <c r="F230" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G230" t="s">
-        <v>532</v>
-      </c>
-      <c r="H230" t="s">
-        <v>573</v>
+        <v>300</v>
+      </c>
+      <c r="H230">
+        <v>35</v>
       </c>
       <c r="I230" s="2">
         <v>44627.46116898148</v>
       </c>
       <c r="J230" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K230">
         <v>11</v>
@@ -8754,23 +7914,23 @@
       <c r="B231" t="s">
         <v>240</v>
       </c>
-      <c r="C231" t="s">
-        <v>498</v>
+      <c r="C231">
+        <v>14710036402091</v>
       </c>
       <c r="F231" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G231" t="s">
-        <v>532</v>
-      </c>
-      <c r="H231" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H231">
+        <v>60</v>
       </c>
       <c r="I231" s="2">
         <v>44627.46164351852</v>
       </c>
       <c r="J231" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K231">
         <v>11</v>
@@ -8783,23 +7943,23 @@
       <c r="B232" t="s">
         <v>241</v>
       </c>
-      <c r="C232" t="s">
-        <v>499</v>
+      <c r="C232">
+        <v>4710036401073</v>
       </c>
       <c r="F232" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G232" t="s">
-        <v>532</v>
-      </c>
-      <c r="H232" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H232">
+        <v>12</v>
       </c>
       <c r="I232" s="2">
         <v>44627.46210648148</v>
       </c>
       <c r="J232" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K232">
         <v>11</v>
@@ -8812,23 +7972,23 @@
       <c r="B233" t="s">
         <v>242</v>
       </c>
-      <c r="C233" t="s">
-        <v>500</v>
+      <c r="C233">
+        <v>4710036600780</v>
       </c>
       <c r="F233" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G233" t="s">
-        <v>532</v>
-      </c>
-      <c r="H233" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H233">
+        <v>60</v>
       </c>
       <c r="I233" s="2">
         <v>44627.46383101852</v>
       </c>
       <c r="J233" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K233">
         <v>11</v>
@@ -8841,23 +8001,23 @@
       <c r="B234" t="s">
         <v>243</v>
       </c>
-      <c r="C234" t="s">
-        <v>501</v>
+      <c r="C234">
+        <v>4710036600797</v>
       </c>
       <c r="F234" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G234" t="s">
-        <v>532</v>
-      </c>
-      <c r="H234" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H234">
+        <v>36</v>
       </c>
       <c r="I234" s="2">
         <v>44627.46385416666</v>
       </c>
       <c r="J234" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K234">
         <v>11</v>
@@ -8870,23 +8030,23 @@
       <c r="B235" t="s">
         <v>244</v>
       </c>
-      <c r="C235" t="s">
-        <v>502</v>
+      <c r="C235">
+        <v>4710036599060</v>
       </c>
       <c r="F235" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G235" t="s">
-        <v>532</v>
-      </c>
-      <c r="H235" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H235">
+        <v>48</v>
       </c>
       <c r="I235" s="2">
         <v>44627.46915509259</v>
       </c>
       <c r="J235" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K235">
         <v>11</v>
@@ -8899,23 +8059,23 @@
       <c r="B236" t="s">
         <v>245</v>
       </c>
-      <c r="C236" t="s">
-        <v>503</v>
+      <c r="C236">
+        <v>4710036599022</v>
       </c>
       <c r="F236" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G236" t="s">
-        <v>532</v>
-      </c>
-      <c r="H236" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="H236">
+        <v>60</v>
       </c>
       <c r="I236" s="2">
         <v>44627.46918981482</v>
       </c>
       <c r="J236" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K236">
         <v>11</v>
@@ -8928,23 +8088,23 @@
       <c r="B237" t="s">
         <v>246</v>
       </c>
-      <c r="C237" t="s">
-        <v>504</v>
+      <c r="C237">
+        <v>4710036611786</v>
       </c>
       <c r="F237" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G237" t="s">
-        <v>532</v>
-      </c>
-      <c r="H237" t="s">
-        <v>574</v>
+        <v>300</v>
+      </c>
+      <c r="H237">
+        <v>128</v>
       </c>
       <c r="I237" s="2">
         <v>44627.46923611111</v>
       </c>
       <c r="J237" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K237">
         <v>11</v>
@@ -8957,23 +8117,23 @@
       <c r="B238" t="s">
         <v>247</v>
       </c>
-      <c r="C238" t="s">
-        <v>505</v>
+      <c r="C238">
+        <v>4710036561630</v>
       </c>
       <c r="F238" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G238" t="s">
-        <v>532</v>
-      </c>
-      <c r="H238" t="s">
-        <v>575</v>
+        <v>300</v>
+      </c>
+      <c r="H238">
+        <v>108</v>
       </c>
       <c r="I238" s="2">
         <v>44627.46982638889</v>
       </c>
       <c r="J238" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K238">
         <v>11</v>
@@ -8986,23 +8146,23 @@
       <c r="B239" t="s">
         <v>248</v>
       </c>
-      <c r="C239" t="s">
-        <v>506</v>
+      <c r="C239">
+        <v>4710036561623</v>
       </c>
       <c r="F239" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G239" t="s">
-        <v>532</v>
-      </c>
-      <c r="H239" t="s">
-        <v>547</v>
+        <v>300</v>
+      </c>
+      <c r="H239">
+        <v>84</v>
       </c>
       <c r="I239" s="2">
         <v>44627.47010416666</v>
       </c>
       <c r="J239" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K239">
         <v>11</v>
@@ -9015,23 +8175,23 @@
       <c r="B240" t="s">
         <v>249</v>
       </c>
-      <c r="C240" t="s">
-        <v>507</v>
+      <c r="C240">
+        <v>4710036602531</v>
       </c>
       <c r="F240" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G240" t="s">
-        <v>532</v>
-      </c>
-      <c r="H240" t="s">
-        <v>576</v>
+        <v>300</v>
+      </c>
+      <c r="H240">
+        <v>120</v>
       </c>
       <c r="I240" s="2">
         <v>44627.47059027778</v>
       </c>
       <c r="J240" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K240">
         <v>11</v>
@@ -9044,23 +8204,23 @@
       <c r="B241" t="s">
         <v>250</v>
       </c>
-      <c r="C241" t="s">
-        <v>508</v>
+      <c r="C241">
+        <v>4710036602494</v>
       </c>
       <c r="F241" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G241" t="s">
-        <v>532</v>
-      </c>
-      <c r="H241" t="s">
-        <v>563</v>
+        <v>300</v>
+      </c>
+      <c r="H241">
+        <v>90</v>
       </c>
       <c r="I241" s="2">
         <v>44627.47075231482</v>
       </c>
       <c r="J241" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K241">
         <v>11</v>
@@ -9073,23 +8233,23 @@
       <c r="B242" t="s">
         <v>251</v>
       </c>
-      <c r="C242" t="s">
-        <v>509</v>
+      <c r="C242">
+        <v>4710036029314</v>
       </c>
       <c r="F242" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G242" t="s">
-        <v>532</v>
-      </c>
-      <c r="H242" t="s">
-        <v>577</v>
+        <v>300</v>
+      </c>
+      <c r="H242">
+        <v>240</v>
       </c>
       <c r="I242" s="2">
         <v>44627.48075231481</v>
       </c>
       <c r="J242" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K242">
         <v>11</v>
@@ -9102,23 +8262,23 @@
       <c r="B243" t="s">
         <v>252</v>
       </c>
-      <c r="C243" t="s">
-        <v>510</v>
+      <c r="C243">
+        <v>4710036029307</v>
       </c>
       <c r="F243" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G243" t="s">
-        <v>532</v>
-      </c>
-      <c r="H243" t="s">
-        <v>578</v>
+        <v>300</v>
+      </c>
+      <c r="H243">
+        <v>144</v>
       </c>
       <c r="I243" s="2">
         <v>44627.48078703704</v>
       </c>
       <c r="J243" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K243">
         <v>11</v>
@@ -9131,23 +8291,23 @@
       <c r="B244" t="s">
         <v>253</v>
       </c>
-      <c r="C244" t="s">
-        <v>511</v>
+      <c r="C244">
+        <v>4710036605778</v>
       </c>
       <c r="F244" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G244" t="s">
-        <v>532</v>
-      </c>
-      <c r="H244" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H244">
+        <v>20</v>
       </c>
       <c r="I244" s="2">
         <v>44627.48103009259</v>
       </c>
       <c r="J244" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K244">
         <v>11</v>
@@ -9160,23 +8320,23 @@
       <c r="B245" t="s">
         <v>254</v>
       </c>
-      <c r="C245" t="s">
-        <v>512</v>
+      <c r="C245">
+        <v>4710036605808</v>
       </c>
       <c r="F245" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G245" t="s">
-        <v>532</v>
-      </c>
-      <c r="H245" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H245">
+        <v>5</v>
       </c>
       <c r="I245" s="2">
         <v>44627.48245370371</v>
       </c>
       <c r="J245" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K245">
         <v>11</v>
@@ -9189,23 +8349,23 @@
       <c r="B246" t="s">
         <v>255</v>
       </c>
-      <c r="C246" t="s">
-        <v>513</v>
+      <c r="C246">
+        <v>4710036605662</v>
       </c>
       <c r="F246" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G246" t="s">
-        <v>532</v>
-      </c>
-      <c r="H246" t="s">
-        <v>536</v>
+        <v>300</v>
+      </c>
+      <c r="H246">
+        <v>10</v>
       </c>
       <c r="I246" s="2">
         <v>44627.48429398148</v>
       </c>
       <c r="J246" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K246">
         <v>11</v>
@@ -9218,23 +8378,23 @@
       <c r="B247" t="s">
         <v>256</v>
       </c>
-      <c r="C247" t="s">
-        <v>514</v>
+      <c r="C247">
+        <v>4710036605655</v>
       </c>
       <c r="F247" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G247" t="s">
-        <v>532</v>
-      </c>
-      <c r="H247" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H247">
+        <v>20</v>
       </c>
       <c r="I247" s="2">
         <v>44627.48436342592</v>
       </c>
       <c r="J247" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K247">
         <v>11</v>
@@ -9247,23 +8407,23 @@
       <c r="B248" t="s">
         <v>257</v>
       </c>
-      <c r="C248" t="s">
-        <v>515</v>
+      <c r="C248">
+        <v>4710036601688</v>
       </c>
       <c r="F248" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G248" t="s">
-        <v>532</v>
-      </c>
-      <c r="H248" t="s">
-        <v>559</v>
+        <v>300</v>
+      </c>
+      <c r="H248">
+        <v>72</v>
       </c>
       <c r="I248" s="2">
         <v>44627.48462962963</v>
       </c>
       <c r="J248" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K248">
         <v>11</v>
@@ -9276,23 +8436,23 @@
       <c r="B249" t="s">
         <v>258</v>
       </c>
-      <c r="C249" t="s">
-        <v>516</v>
+      <c r="C249">
+        <v>4710036605594</v>
       </c>
       <c r="F249" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G249" t="s">
-        <v>532</v>
-      </c>
-      <c r="H249" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H249">
+        <v>100</v>
       </c>
       <c r="I249" s="2">
         <v>44627.4846875</v>
       </c>
       <c r="J249" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K249">
         <v>11</v>
@@ -9305,23 +8465,23 @@
       <c r="B250" t="s">
         <v>259</v>
       </c>
-      <c r="C250" t="s">
-        <v>517</v>
+      <c r="C250">
+        <v>4710036605617</v>
       </c>
       <c r="F250" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G250" t="s">
-        <v>532</v>
-      </c>
-      <c r="H250" t="s">
-        <v>556</v>
+        <v>300</v>
+      </c>
+      <c r="H250">
+        <v>80</v>
       </c>
       <c r="I250" s="2">
         <v>44627.48881944444</v>
       </c>
       <c r="J250" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K250">
         <v>11</v>
@@ -9334,23 +8494,23 @@
       <c r="B251" t="s">
         <v>260</v>
       </c>
-      <c r="C251" t="s">
-        <v>518</v>
+      <c r="C251">
+        <v>4710036599312</v>
       </c>
       <c r="F251" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G251" t="s">
-        <v>532</v>
-      </c>
-      <c r="H251" t="s">
-        <v>539</v>
+        <v>300</v>
+      </c>
+      <c r="H251">
+        <v>56</v>
       </c>
       <c r="I251" s="2">
         <v>44627.48949074074</v>
       </c>
       <c r="J251" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K251">
         <v>11</v>
@@ -9363,23 +8523,23 @@
       <c r="B252" t="s">
         <v>261</v>
       </c>
-      <c r="C252" t="s">
-        <v>519</v>
+      <c r="C252">
+        <v>4710036605600</v>
       </c>
       <c r="F252" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G252" t="s">
-        <v>532</v>
-      </c>
-      <c r="H252" t="s">
-        <v>544</v>
+        <v>300</v>
+      </c>
+      <c r="H252">
+        <v>100</v>
       </c>
       <c r="I252" s="2">
         <v>44627.48997685185</v>
       </c>
       <c r="J252" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K252">
         <v>11</v>
@@ -9392,23 +8552,23 @@
       <c r="B253" t="s">
         <v>262</v>
       </c>
-      <c r="C253" t="s">
-        <v>520</v>
+      <c r="C253">
+        <v>4710114880684</v>
       </c>
       <c r="F253" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G253" t="s">
-        <v>532</v>
-      </c>
-      <c r="H253" t="s">
-        <v>538</v>
+        <v>300</v>
+      </c>
+      <c r="H253">
+        <v>48</v>
       </c>
       <c r="I253" s="2">
         <v>44627.49068287037</v>
       </c>
       <c r="J253" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K253">
         <v>11</v>
@@ -9421,23 +8581,23 @@
       <c r="B254" t="s">
         <v>263</v>
       </c>
-      <c r="C254" t="s">
-        <v>521</v>
+      <c r="C254">
+        <v>4710114862178</v>
       </c>
       <c r="F254" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G254" t="s">
-        <v>532</v>
-      </c>
-      <c r="H254" t="s">
-        <v>579</v>
+        <v>300</v>
+      </c>
+      <c r="H254">
+        <v>256</v>
       </c>
       <c r="I254" s="2">
         <v>44627.49094907408</v>
       </c>
       <c r="J254" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K254">
         <v>11</v>
@@ -9450,23 +8610,23 @@
       <c r="B255" t="s">
         <v>264</v>
       </c>
-      <c r="C255" t="s">
-        <v>522</v>
+      <c r="C255">
+        <v>4710036555172</v>
       </c>
       <c r="F255" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G255" t="s">
-        <v>532</v>
-      </c>
-      <c r="H255" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H255">
+        <v>12</v>
       </c>
       <c r="I255" s="2">
         <v>44627.49126157408</v>
       </c>
       <c r="J255" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K255">
         <v>11</v>
@@ -9479,23 +8639,23 @@
       <c r="B256" t="s">
         <v>265</v>
       </c>
-      <c r="C256" t="s">
-        <v>523</v>
+      <c r="C256">
+        <v>14710036611547</v>
       </c>
       <c r="F256" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G256" t="s">
-        <v>532</v>
-      </c>
-      <c r="H256" t="s">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="H256">
+        <v>5</v>
       </c>
       <c r="I256" s="2">
         <v>44627.49221064815</v>
       </c>
       <c r="J256" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K256">
         <v>11</v>
@@ -9508,23 +8668,23 @@
       <c r="B257" t="s">
         <v>266</v>
       </c>
-      <c r="C257" t="s">
-        <v>524</v>
+      <c r="C257">
+        <v>4710114882428</v>
       </c>
       <c r="F257" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G257" t="s">
-        <v>532</v>
-      </c>
-      <c r="H257" t="s">
-        <v>548</v>
+        <v>300</v>
+      </c>
+      <c r="H257">
+        <v>36</v>
       </c>
       <c r="I257" s="2">
         <v>44627.49364583333</v>
       </c>
       <c r="J257" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K257">
         <v>11</v>
@@ -9537,23 +8697,23 @@
       <c r="B258" t="s">
         <v>267</v>
       </c>
-      <c r="C258" t="s">
-        <v>525</v>
+      <c r="C258">
+        <v>14710114882425</v>
       </c>
       <c r="F258" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G258" t="s">
-        <v>532</v>
-      </c>
-      <c r="H258" t="s">
-        <v>545</v>
+        <v>300</v>
+      </c>
+      <c r="H258">
+        <v>12</v>
       </c>
       <c r="I258" s="2">
         <v>44627.49366898148</v>
       </c>
       <c r="J258" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K258">
         <v>11</v>
@@ -9566,23 +8726,23 @@
       <c r="B259" t="s">
         <v>268</v>
       </c>
-      <c r="C259" t="s">
-        <v>526</v>
+      <c r="C259">
+        <v>4710036555196</v>
       </c>
       <c r="F259" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G259" t="s">
-        <v>532</v>
-      </c>
-      <c r="H259" t="s">
-        <v>559</v>
+        <v>300</v>
+      </c>
+      <c r="H259">
+        <v>72</v>
       </c>
       <c r="I259" s="2">
         <v>44627.49383101852</v>
       </c>
       <c r="J259" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K259">
         <v>11</v>
@@ -9595,23 +8755,23 @@
       <c r="B260" t="s">
         <v>269</v>
       </c>
-      <c r="C260" t="s">
-        <v>527</v>
+      <c r="C260">
+        <v>4710036613087</v>
       </c>
       <c r="F260" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G260" t="s">
-        <v>532</v>
-      </c>
-      <c r="H260" t="s">
-        <v>576</v>
+        <v>300</v>
+      </c>
+      <c r="H260">
+        <v>120</v>
       </c>
       <c r="I260" s="2">
         <v>44627.4943287037</v>
       </c>
       <c r="J260" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K260">
         <v>11</v>
@@ -9624,23 +8784,23 @@
       <c r="B261" t="s">
         <v>270</v>
       </c>
-      <c r="C261" t="s">
-        <v>528</v>
+      <c r="C261">
+        <v>4710036586893</v>
       </c>
       <c r="F261" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G261" t="s">
-        <v>532</v>
-      </c>
-      <c r="H261" t="s">
-        <v>576</v>
+        <v>300</v>
+      </c>
+      <c r="H261">
+        <v>120</v>
       </c>
       <c r="I261" s="2">
         <v>44627.49480324074</v>
       </c>
       <c r="J261" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K261">
         <v>11</v>
@@ -9653,23 +8813,23 @@
       <c r="B262" t="s">
         <v>271</v>
       </c>
-      <c r="C262" t="s">
-        <v>529</v>
+      <c r="C262">
+        <v>4710036394894</v>
       </c>
       <c r="F262" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G262" t="s">
-        <v>532</v>
-      </c>
-      <c r="H262" t="s">
-        <v>542</v>
+        <v>300</v>
+      </c>
+      <c r="H262">
+        <v>20</v>
       </c>
       <c r="I262" s="2">
         <v>44627.49591435185</v>
       </c>
       <c r="J262" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K262">
         <v>11</v>
@@ -9682,23 +8842,23 @@
       <c r="B263" t="s">
         <v>272</v>
       </c>
-      <c r="C263" t="s">
-        <v>530</v>
+      <c r="C263">
+        <v>4710036586824</v>
       </c>
       <c r="F263" t="s">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="G263" t="s">
-        <v>532</v>
-      </c>
-      <c r="H263" t="s">
-        <v>580</v>
+        <v>300</v>
+      </c>
+      <c r="H263">
+        <v>176</v>
       </c>
       <c r="I263" s="2">
         <v>44627.49607638889</v>
       </c>
       <c r="J263" t="s">
-        <v>581</v>
+        <v>301</v>
       </c>
       <c r="K263">
         <v>11</v>
